--- a/data_output/PYLL/PYLL_EU/EU_PYLL_All_age_groups_['Female', 'Male', 'Total'].xlsx
+++ b/data_output/PYLL/PYLL_EU/EU_PYLL_All_age_groups_['Female', 'Male', 'Total'].xlsx
@@ -169,13 +169,13 @@
     <t>Total</t>
   </si>
   <si>
-    <t>18294.9 (±4335.2)</t>
-  </si>
-  <si>
-    <t>45159.3 (±5155.9)</t>
-  </si>
-  <si>
-    <t>63273.1 (±7946.2)</t>
+    <t>17268.3 (±4514.5)</t>
+  </si>
+  <si>
+    <t>43782.0 (±5674.5)</t>
+  </si>
+  <si>
+    <t>60883.4 (±8661.7)</t>
   </si>
   <si>
     <t>41300.4 (±6812.6)</t>
@@ -196,22 +196,22 @@
     <t>99692.4 (±25475.7)</t>
   </si>
   <si>
-    <t>85307.6 (±17899.1)</t>
-  </si>
-  <si>
-    <t>86087.4 (±19824.8)</t>
-  </si>
-  <si>
-    <t>172691.0 (±35578.3)</t>
-  </si>
-  <si>
-    <t>91912.8 (±15182.6)</t>
+    <t>85342.1 (±17899.1)</t>
+  </si>
+  <si>
+    <t>86095.7 (±19824.8)</t>
+  </si>
+  <si>
+    <t>172732.5 (±35578.3)</t>
+  </si>
+  <si>
+    <t>91966.9 (±15182.6)</t>
   </si>
   <si>
     <t>123801.1 (±17131.1)</t>
   </si>
   <si>
-    <t>223062.3 (±31278.6)</t>
+    <t>223111.5 (±31278.6)</t>
   </si>
   <si>
     <t>25538.9 (±9225.9)</t>
@@ -232,13 +232,13 @@
     <t>7592.6 (±3141.5)</t>
   </si>
   <si>
-    <t>88985.4 (±20939.2)</t>
-  </si>
-  <si>
-    <t>109548.5 (±21833.4)</t>
-  </si>
-  <si>
-    <t>204314.0 (±40827.0)</t>
+    <t>89020.7 (±20939.2)</t>
+  </si>
+  <si>
+    <t>109617.4 (±21833.4)</t>
+  </si>
+  <si>
+    <t>204422.8 (±40827.0)</t>
   </si>
   <si>
     <t>9050.9 (±3475.5)</t>
@@ -250,13 +250,13 @@
     <t>23533.5 (±9830.5)</t>
   </si>
   <si>
-    <t>7725.0 (±3571.6)</t>
-  </si>
-  <si>
-    <t>5780.4 (±3063.0)</t>
-  </si>
-  <si>
-    <t>13198.7 (±6301.8)</t>
+    <t>7790.8 (±3571.6)</t>
+  </si>
+  <si>
+    <t>5909.0 (±3063.0)</t>
+  </si>
+  <si>
+    <t>13403.8 (±6301.8)</t>
   </si>
   <si>
     <t>15746.3 (±6513.0)</t>
@@ -268,13 +268,13 @@
     <t>35213.3 (±12843.0)</t>
   </si>
   <si>
-    <t>329303.8 (±71113.9)</t>
-  </si>
-  <si>
-    <t>346304.8 (±78046.3)</t>
-  </si>
-  <si>
-    <t>689579.9 (±149482.9)</t>
+    <t>329513.1 (±71113.9)</t>
+  </si>
+  <si>
+    <t>346562.5 (±78046.3)</t>
+  </si>
+  <si>
+    <t>690058.8 (±149482.9)</t>
   </si>
   <si>
     <t>1437.8 (±2001.3)</t>
@@ -316,22 +316,22 @@
     <t>2604.1 (±1765.0)</t>
   </si>
   <si>
-    <t>473658.2 (±82856.4)</t>
-  </si>
-  <si>
-    <t>595475.3 (±73788.9)</t>
-  </si>
-  <si>
-    <t>1096968.4 (±152524.4)</t>
-  </si>
-  <si>
-    <t>5685.0 (±2391.6)</t>
-  </si>
-  <si>
-    <t>4668.2 (±2330.9)</t>
-  </si>
-  <si>
-    <t>10016.5 (±6026.5)</t>
+    <t>474445.4 (±82856.4)</t>
+  </si>
+  <si>
+    <t>596777.1 (±73788.9)</t>
+  </si>
+  <si>
+    <t>1099126.6 (±152524.4)</t>
+  </si>
+  <si>
+    <t>6047.8 (±2693.7)</t>
+  </si>
+  <si>
+    <t>5579.0 (±2974.7)</t>
+  </si>
+  <si>
+    <t>11568.9 (±6026.5)</t>
   </si>
   <si>
     <t>23398.3 (±9003.3)</t>
@@ -352,40 +352,40 @@
     <t>6923.6 (±3546.0)</t>
   </si>
   <si>
-    <t>2685.0 (±1506.5)</t>
-  </si>
-  <si>
-    <t>4045.3 (±1827.0)</t>
-  </si>
-  <si>
-    <t>6672.1 (±2886.0)</t>
-  </si>
-  <si>
-    <t>4138.1 (±1477.4)</t>
-  </si>
-  <si>
-    <t>6252.2 (±2428.9)</t>
-  </si>
-  <si>
-    <t>10405.3 (±3010.1)</t>
-  </si>
-  <si>
-    <t>82161.0 (±19903.9)</t>
-  </si>
-  <si>
-    <t>116318.8 (±22948.1)</t>
-  </si>
-  <si>
-    <t>198633.7 (±42951.2)</t>
-  </si>
-  <si>
-    <t>4553.7 (±3607.4)</t>
-  </si>
-  <si>
-    <t>7113.1 (±3624.3)</t>
-  </si>
-  <si>
-    <t>10762.0 (±7368.5)</t>
+    <t>2733.0 (±1506.5)</t>
+  </si>
+  <si>
+    <t>4038.7 (±1827.0)</t>
+  </si>
+  <si>
+    <t>6711.7 (±2886.0)</t>
+  </si>
+  <si>
+    <t>3881.3 (±1477.4)</t>
+  </si>
+  <si>
+    <t>5779.6 (±2428.9)</t>
+  </si>
+  <si>
+    <t>9686.4 (±3010.1)</t>
+  </si>
+  <si>
+    <t>82459.3 (±19808.2)</t>
+  </si>
+  <si>
+    <t>117987.8 (±23008.5)</t>
+  </si>
+  <si>
+    <t>200808.7 (±42925.2)</t>
+  </si>
+  <si>
+    <t>4613.7 (±3964.2)</t>
+  </si>
+  <si>
+    <t>7037.4 (±3625.4)</t>
+  </si>
+  <si>
+    <t>10720.0 (±7363.2)</t>
   </si>
   <si>
     <t>413043.5 (±82102.2)</t>
@@ -406,13 +406,13 @@
     <t>140361.9 (±29396.3)</t>
   </si>
   <si>
-    <t>187932.1 (±37113.8)</t>
-  </si>
-  <si>
-    <t>284342.1 (±45133.7)</t>
-  </si>
-  <si>
-    <t>492273.4 (±80875.2)</t>
+    <t>188472.8 (±37113.8)</t>
+  </si>
+  <si>
+    <t>285019.6 (±45133.7)</t>
+  </si>
+  <si>
+    <t>493530.9 (±80875.2)</t>
   </si>
   <si>
     <t>39207.6 (±13675.7)</t>
@@ -424,31 +424,31 @@
     <t>121240.2 (±36021.0)</t>
   </si>
   <si>
-    <t>35738.9 (±10186.1)</t>
-  </si>
-  <si>
-    <t>39161.0 (±7293.4)</t>
-  </si>
-  <si>
-    <t>75859.9 (±11916.5)</t>
-  </si>
-  <si>
-    <t>18875.3 (±4339.0)</t>
-  </si>
-  <si>
-    <t>19108.2 (±5137.3)</t>
-  </si>
-  <si>
-    <t>38473.3 (±7443.9)</t>
-  </si>
-  <si>
-    <t>430383.7 (±59090.6)</t>
-  </si>
-  <si>
-    <t>447060.0 (±61911.3)</t>
-  </si>
-  <si>
-    <t>892794.4 (±117028.9)</t>
+    <t>35757.1 (±10186.1)</t>
+  </si>
+  <si>
+    <t>39192.7 (±7293.4)</t>
+  </si>
+  <si>
+    <t>75911.4 (±11916.5)</t>
+  </si>
+  <si>
+    <t>19031.5 (±4339.0)</t>
+  </si>
+  <si>
+    <t>19361.6 (±5137.3)</t>
+  </si>
+  <si>
+    <t>38774.8 (±7443.9)</t>
+  </si>
+  <si>
+    <t>404830.8 (±59531.1)</t>
+  </si>
+  <si>
+    <t>427826.0 (±61911.3)</t>
+  </si>
+  <si>
+    <t>848445.4 (±118377.8)</t>
   </si>
   <si>
     <t>32142.9 (±6941.9)</t>
@@ -469,13 +469,13 @@
     <t>90640.5 (±17183.8)</t>
   </si>
   <si>
-    <t>8.91 (±0.67)</t>
-  </si>
-  <si>
-    <t>10.98 (±0.29)</t>
-  </si>
-  <si>
-    <t>10.27 (±0.37)</t>
+    <t>8.77 (±0.72)</t>
+  </si>
+  <si>
+    <t>10.8 (±0.38)</t>
+  </si>
+  <si>
+    <t>10.11 (±0.46)</t>
   </si>
   <si>
     <t>12.57 (±0.16)</t>
@@ -496,7 +496,7 @@
     <t>10.2 (±0.3)</t>
   </si>
   <si>
-    <t>8.59 (±0.43)</t>
+    <t>8.6 (±0.42)</t>
   </si>
   <si>
     <t>9.34 (±0.51)</t>
@@ -511,7 +511,7 @@
     <t>12.03 (±0.04)</t>
   </si>
   <si>
-    <t>12.68 (±0.09)</t>
+    <t>12.68 (±0.08)</t>
   </si>
   <si>
     <t>9.3 (±0.58)</t>
@@ -550,13 +550,13 @@
     <t>9.85 (±0.55)</t>
   </si>
   <si>
-    <t>11.88 (±0.99)</t>
-  </si>
-  <si>
-    <t>11.77 (±1.02)</t>
-  </si>
-  <si>
-    <t>12.0 (±0.84)</t>
+    <t>11.91 (±0.98)</t>
+  </si>
+  <si>
+    <t>11.89 (±0.97)</t>
+  </si>
+  <si>
+    <t>12.08 (±0.81)</t>
   </si>
   <si>
     <t>11.04 (±0.54)</t>
@@ -625,13 +625,13 @@
     <t>9.91 (±0.19)</t>
   </si>
   <si>
-    <t>7.29 (±0.01)</t>
-  </si>
-  <si>
-    <t>8.01 (±0.47)</t>
-  </si>
-  <si>
-    <t>7.63 (±0.6)</t>
+    <t>7.3 (±0.2)</t>
+  </si>
+  <si>
+    <t>8.48 (±0.79)</t>
+  </si>
+  <si>
+    <t>7.98 (±0.45)</t>
   </si>
   <si>
     <t>10.24 (±0.43)</t>
@@ -652,40 +652,40 @@
     <t>12.34 (±1.48)</t>
   </si>
   <si>
-    <t>10.42 (±1.82)</t>
-  </si>
-  <si>
-    <t>13.52 (±1.0)</t>
-  </si>
-  <si>
-    <t>12.11 (±1.33)</t>
-  </si>
-  <si>
-    <t>11.24 (±0.82)</t>
-  </si>
-  <si>
-    <t>10.54 (±0.8)</t>
-  </si>
-  <si>
-    <t>11.13 (±0.83)</t>
-  </si>
-  <si>
-    <t>9.69 (±0.71)</t>
-  </si>
-  <si>
-    <t>9.81 (±0.38)</t>
-  </si>
-  <si>
-    <t>9.82 (±0.56)</t>
-  </si>
-  <si>
-    <t>15.42 (±0.09)</t>
-  </si>
-  <si>
-    <t>12.16 (±0.2)</t>
-  </si>
-  <si>
-    <t>13.85 (±0.05)</t>
+    <t>10.44 (±1.8)</t>
+  </si>
+  <si>
+    <t>13.45 (±1.02)</t>
+  </si>
+  <si>
+    <t>12.07 (±1.33)</t>
+  </si>
+  <si>
+    <t>11.52 (±0.8)</t>
+  </si>
+  <si>
+    <t>10.64 (±0.83)</t>
+  </si>
+  <si>
+    <t>11.28 (±0.87)</t>
+  </si>
+  <si>
+    <t>9.7 (±0.69)</t>
+  </si>
+  <si>
+    <t>9.89 (±0.37)</t>
+  </si>
+  <si>
+    <t>9.87 (±0.56)</t>
+  </si>
+  <si>
+    <t>15.5 (±0.55)</t>
+  </si>
+  <si>
+    <t>12.18 (±0.21)</t>
+  </si>
+  <si>
+    <t>13.96 (±0.0)</t>
   </si>
   <si>
     <t>11.07 (±0.21)</t>
@@ -709,7 +709,7 @@
     <t>11.46 (±0.03)</t>
   </si>
   <si>
-    <t>11.89 (±0.11)</t>
+    <t>11.9 (±0.1)</t>
   </si>
   <si>
     <t>12.21 (±0.01)</t>
@@ -724,31 +724,31 @@
     <t>11.95 (±0.32)</t>
   </si>
   <si>
-    <t>11.73 (±0.66)</t>
-  </si>
-  <si>
-    <t>10.72 (±0.43)</t>
-  </si>
-  <si>
-    <t>11.39 (±0.14)</t>
-  </si>
-  <si>
-    <t>8.7 (±0.49)</t>
-  </si>
-  <si>
-    <t>9.86 (±0.74)</t>
-  </si>
-  <si>
-    <t>9.39 (±0.4)</t>
-  </si>
-  <si>
-    <t>10.48 (±0.16)</t>
-  </si>
-  <si>
-    <t>10.82 (±0.13)</t>
-  </si>
-  <si>
-    <t>10.85 (±0.14)</t>
+    <t>11.72 (±0.66)</t>
+  </si>
+  <si>
+    <t>10.72 (±0.44)</t>
+  </si>
+  <si>
+    <t>11.4 (±0.13)</t>
+  </si>
+  <si>
+    <t>8.71 (±0.49)</t>
+  </si>
+  <si>
+    <t>9.92 (±0.73)</t>
+  </si>
+  <si>
+    <t>9.41 (±0.4)</t>
+  </si>
+  <si>
+    <t>10.29 (±0.19)</t>
+  </si>
+  <si>
+    <t>10.91 (±0.12)</t>
+  </si>
+  <si>
+    <t>10.8 (±0.17)</t>
   </si>
   <si>
     <t>9.36 (±0.05)</t>
@@ -769,13 +769,13 @@
     <t>8.74 (±0.6)</t>
   </si>
   <si>
-    <t>1296.1 (±307.1)</t>
-  </si>
-  <si>
-    <t>3207.1 (±366.2)</t>
-  </si>
-  <si>
-    <t>2244.0 (±281.8)</t>
+    <t>1223.3 (±319.8)</t>
+  </si>
+  <si>
+    <t>3109.3 (±403.0)</t>
+  </si>
+  <si>
+    <t>2159.2 (±307.2)</t>
   </si>
   <si>
     <t>2674.5 (±441.2)</t>
@@ -796,22 +796,22 @@
     <t>1120.1 (±286.2)</t>
   </si>
   <si>
-    <t>1461.4 (±306.6)</t>
-  </si>
-  <si>
-    <t>1516.3 (±349.2)</t>
-  </si>
-  <si>
-    <t>1499.7 (±309.0)</t>
-  </si>
-  <si>
-    <t>2568.9 (±424.3)</t>
+    <t>1461.9 (±306.6)</t>
+  </si>
+  <si>
+    <t>1516.5 (±349.2)</t>
+  </si>
+  <si>
+    <t>1500.1 (±309.0)</t>
+  </si>
+  <si>
+    <t>2570.4 (±424.3)</t>
   </si>
   <si>
     <t>3675.4 (±508.6)</t>
   </si>
   <si>
-    <t>3211.2 (±450.3)</t>
+    <t>3211.9 (±450.3)</t>
   </si>
   <si>
     <t>1225.4 (±442.7)</t>
@@ -832,13 +832,13 @@
     <t>868.9 (±359.5)</t>
   </si>
   <si>
-    <t>1641.7 (±386.3)</t>
-  </si>
-  <si>
-    <t>2078.4 (±414.2)</t>
-  </si>
-  <si>
-    <t>1911.1 (±381.9)</t>
+    <t>1642.3 (±386.3)</t>
+  </si>
+  <si>
+    <t>2079.7 (±414.2)</t>
+  </si>
+  <si>
+    <t>1912.1 (±381.9)</t>
   </si>
   <si>
     <t>301.2 (±115.7)</t>
@@ -850,13 +850,13 @@
     <t>396.0 (±165.4)</t>
   </si>
   <si>
-    <t>1104.9 (±510.9)</t>
-  </si>
-  <si>
-    <t>918.9 (±486.9)</t>
-  </si>
-  <si>
-    <t>993.7 (±474.5)</t>
+    <t>1114.3 (±510.9)</t>
+  </si>
+  <si>
+    <t>939.3 (±486.9)</t>
+  </si>
+  <si>
+    <t>1009.2 (±474.5)</t>
   </si>
   <si>
     <t>563.3 (±233.0)</t>
@@ -868,13 +868,13 @@
     <t>637.7 (±232.6)</t>
   </si>
   <si>
-    <t>947.9 (±204.7)</t>
-  </si>
-  <si>
-    <t>1065.5 (±240.1)</t>
-  </si>
-  <si>
-    <t>1025.5 (±222.3)</t>
+    <t>948.5 (±204.7)</t>
+  </si>
+  <si>
+    <t>1066.3 (±240.1)</t>
+  </si>
+  <si>
+    <t>1026.2 (±222.3)</t>
   </si>
   <si>
     <t>74.6 (±103.9)</t>
@@ -916,22 +916,22 @@
     <t>715.4 (±484.9)</t>
   </si>
   <si>
-    <t>1626.1 (±284.5)</t>
-  </si>
-  <si>
-    <t>2102.2 (±260.5)</t>
-  </si>
-  <si>
-    <t>1839.3 (±255.7)</t>
-  </si>
-  <si>
-    <t>553.8 (±233.0)</t>
-  </si>
-  <si>
-    <t>529.9 (±264.6)</t>
-  </si>
-  <si>
-    <t>525.1 (±315.9)</t>
+    <t>1628.8 (±284.5)</t>
+  </si>
+  <si>
+    <t>2106.8 (±260.5)</t>
+  </si>
+  <si>
+    <t>1842.9 (±255.7)</t>
+  </si>
+  <si>
+    <t>589.1 (±262.4)</t>
+  </si>
+  <si>
+    <t>633.3 (±337.7)</t>
+  </si>
+  <si>
+    <t>606.5 (±315.9)</t>
   </si>
   <si>
     <t>1572.2 (±604.9)</t>
@@ -952,40 +952,40 @@
     <t>1106.4 (±566.6)</t>
   </si>
   <si>
-    <t>1080.5 (±606.2)</t>
-  </si>
-  <si>
-    <t>1523.4 (±688.0)</t>
-  </si>
-  <si>
-    <t>1298.0 (±561.4)</t>
-  </si>
-  <si>
-    <t>1317.0 (±470.2)</t>
-  </si>
-  <si>
-    <t>2034.3 (±790.3)</t>
-  </si>
-  <si>
-    <t>1674.1 (±484.3)</t>
-  </si>
-  <si>
-    <t>938.4 (±227.3)</t>
-  </si>
-  <si>
-    <t>1345.9 (±265.5)</t>
-  </si>
-  <si>
-    <t>1141.7 (±246.9)</t>
-  </si>
-  <si>
-    <t>171.1 (±135.5)</t>
-  </si>
-  <si>
-    <t>262.9 (±133.9)</t>
-  </si>
-  <si>
-    <t>200.5 (±137.3)</t>
+    <t>1099.8 (±606.2)</t>
+  </si>
+  <si>
+    <t>1520.9 (±688.0)</t>
+  </si>
+  <si>
+    <t>1305.7 (±561.4)</t>
+  </si>
+  <si>
+    <t>1235.3 (±470.2)</t>
+  </si>
+  <si>
+    <t>1880.5 (±790.3)</t>
+  </si>
+  <si>
+    <t>1558.4 (±484.3)</t>
+  </si>
+  <si>
+    <t>941.8 (±226.2)</t>
+  </si>
+  <si>
+    <t>1365.2 (±266.2)</t>
+  </si>
+  <si>
+    <t>1154.2 (±246.7)</t>
+  </si>
+  <si>
+    <t>173.4 (±149.0)</t>
+  </si>
+  <si>
+    <t>260.1 (±134.0)</t>
+  </si>
+  <si>
+    <t>199.7 (±137.2)</t>
   </si>
   <si>
     <t>2110.6 (±419.5)</t>
@@ -1006,13 +1006,13 @@
     <t>1364.9 (±285.9)</t>
   </si>
   <si>
-    <t>1906.5 (±376.5)</t>
-  </si>
-  <si>
-    <t>3007.3 (±477.4)</t>
-  </si>
-  <si>
-    <t>2549.0 (±418.8)</t>
+    <t>1912.0 (±376.5)</t>
+  </si>
+  <si>
+    <t>3014.5 (±477.4)</t>
+  </si>
+  <si>
+    <t>2555.5 (±418.8)</t>
   </si>
   <si>
     <t>1104.9 (±385.4)</t>
@@ -1024,31 +1024,31 @@
     <t>1752.0 (±520.5)</t>
   </si>
   <si>
-    <t>1280.5 (±365.0)</t>
-  </si>
-  <si>
-    <t>1469.7 (±273.7)</t>
-  </si>
-  <si>
-    <t>1390.5 (±218.4)</t>
-  </si>
-  <si>
-    <t>1808.2 (±415.7)</t>
-  </si>
-  <si>
-    <t>1819.6 (±489.2)</t>
-  </si>
-  <si>
-    <t>1837.3 (±355.5)</t>
-  </si>
-  <si>
-    <t>1785.6 (±245.2)</t>
-  </si>
-  <si>
-    <t>1928.7 (±267.1)</t>
-  </si>
-  <si>
-    <t>1888.2 (±247.5)</t>
+    <t>1281.1 (±365.0)</t>
+  </si>
+  <si>
+    <t>1470.9 (±273.7)</t>
+  </si>
+  <si>
+    <t>1391.5 (±218.4)</t>
+  </si>
+  <si>
+    <t>1823.2 (±415.7)</t>
+  </si>
+  <si>
+    <t>1843.7 (±489.2)</t>
+  </si>
+  <si>
+    <t>1851.7 (±355.5)</t>
+  </si>
+  <si>
+    <t>1679.5 (±247.0)</t>
+  </si>
+  <si>
+    <t>1845.7 (±267.1)</t>
+  </si>
+  <si>
+    <t>1794.4 (±250.4)</t>
   </si>
   <si>
     <t>626.5 (±135.3)</t>
@@ -1482,31 +1482,31 @@
         <v>48</v>
       </c>
       <c r="C2">
-        <v>2052.8</v>
+        <v>1969.8</v>
       </c>
       <c r="D2">
-        <v>308.2</v>
+        <v>325.4</v>
       </c>
       <c r="E2">
-        <v>18294.90000000001</v>
+        <v>17268.3</v>
       </c>
       <c r="F2">
-        <v>4335.2</v>
+        <v>4514.5</v>
       </c>
       <c r="G2">
-        <v>8.91</v>
+        <v>8.77</v>
       </c>
       <c r="H2">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="I2">
         <v>1411583</v>
       </c>
       <c r="J2">
-        <v>1296.1</v>
+        <v>1223.3</v>
       </c>
       <c r="K2">
-        <v>307.1</v>
+        <v>319.8</v>
       </c>
       <c r="L2" t="s">
         <v>51</v>
@@ -1526,31 +1526,31 @@
         <v>49</v>
       </c>
       <c r="C3">
-        <v>4111.400000000001</v>
+        <v>4052.400000000001</v>
       </c>
       <c r="D3">
-        <v>353.9</v>
+        <v>369.8000000000001</v>
       </c>
       <c r="E3">
-        <v>45159.3</v>
+        <v>43782</v>
       </c>
       <c r="F3">
-        <v>5155.899999999999</v>
+        <v>5674.5</v>
       </c>
       <c r="G3">
-        <v>10.98</v>
+        <v>10.8</v>
       </c>
       <c r="H3">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="I3">
         <v>1408097</v>
       </c>
       <c r="J3">
-        <v>3207.1</v>
+        <v>3109.3</v>
       </c>
       <c r="K3">
-        <v>366.2</v>
+        <v>403</v>
       </c>
       <c r="L3" t="s">
         <v>52</v>
@@ -1570,31 +1570,31 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>6161.8</v>
+        <v>6020.8</v>
       </c>
       <c r="D4">
-        <v>533.1999999999999</v>
+        <v>560.6999999999999</v>
       </c>
       <c r="E4">
-        <v>63273.1</v>
+        <v>60883.39999999999</v>
       </c>
       <c r="F4">
-        <v>7946.200000000001</v>
+        <v>8661.700000000001</v>
       </c>
       <c r="G4">
-        <v>10.27</v>
+        <v>10.11</v>
       </c>
       <c r="H4">
-        <v>0.37</v>
+        <v>0.46</v>
       </c>
       <c r="I4">
         <v>2819680</v>
       </c>
       <c r="J4">
-        <v>2244</v>
+        <v>2159.2</v>
       </c>
       <c r="K4">
-        <v>281.8</v>
+        <v>307.2</v>
       </c>
       <c r="L4" t="s">
         <v>53</v>
@@ -1878,28 +1878,28 @@
         <v>48</v>
       </c>
       <c r="C11">
-        <v>9926</v>
+        <v>9928</v>
       </c>
       <c r="D11">
         <v>1513.2</v>
       </c>
       <c r="E11">
-        <v>85307.60000000001</v>
+        <v>85342.10000000001</v>
       </c>
       <c r="F11">
         <v>17899.1</v>
       </c>
       <c r="G11">
-        <v>8.59</v>
+        <v>8.6</v>
       </c>
       <c r="H11">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="I11">
         <v>5837584</v>
       </c>
       <c r="J11">
-        <v>1461.4</v>
+        <v>1461.9</v>
       </c>
       <c r="K11">
         <v>306.6</v>
@@ -1922,13 +1922,13 @@
         <v>49</v>
       </c>
       <c r="C12">
-        <v>9219.599999999999</v>
+        <v>9220.599999999999</v>
       </c>
       <c r="D12">
         <v>1531.4</v>
       </c>
       <c r="E12">
-        <v>86087.40000000001</v>
+        <v>86095.70000000001</v>
       </c>
       <c r="F12">
         <v>19824.8</v>
@@ -1943,7 +1943,7 @@
         <v>5677327</v>
       </c>
       <c r="J12">
-        <v>1516.3</v>
+        <v>1516.5</v>
       </c>
       <c r="K12">
         <v>349.2</v>
@@ -1966,13 +1966,13 @@
         <v>50</v>
       </c>
       <c r="C13">
-        <v>19105.4</v>
+        <v>19108.4</v>
       </c>
       <c r="D13">
         <v>2802.3</v>
       </c>
       <c r="E13">
-        <v>172691</v>
+        <v>172732.5</v>
       </c>
       <c r="F13">
         <v>35578.3</v>
@@ -1987,7 +1987,7 @@
         <v>11514911</v>
       </c>
       <c r="J13">
-        <v>1499.7</v>
+        <v>1500.1</v>
       </c>
       <c r="K13">
         <v>309</v>
@@ -2010,13 +2010,13 @@
         <v>48</v>
       </c>
       <c r="C14">
-        <v>7305.4</v>
+        <v>7308.4</v>
       </c>
       <c r="D14">
         <v>1336.9</v>
       </c>
       <c r="E14">
-        <v>91912.8</v>
+        <v>91966.89999999999</v>
       </c>
       <c r="F14">
         <v>15182.6</v>
@@ -2031,7 +2031,7 @@
         <v>3577957</v>
       </c>
       <c r="J14">
-        <v>2568.9</v>
+        <v>2570.4</v>
       </c>
       <c r="K14">
         <v>424.3</v>
@@ -2098,13 +2098,13 @@
         <v>50</v>
       </c>
       <c r="C16">
-        <v>17590.2</v>
+        <v>17593.2</v>
       </c>
       <c r="D16">
         <v>2603.6</v>
       </c>
       <c r="E16">
-        <v>223062.3</v>
+        <v>223111.5</v>
       </c>
       <c r="F16">
         <v>31278.6</v>
@@ -2113,13 +2113,13 @@
         <v>12.68</v>
       </c>
       <c r="H16">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I16">
         <v>6946346</v>
       </c>
       <c r="J16">
-        <v>3211.2</v>
+        <v>3211.9</v>
       </c>
       <c r="K16">
         <v>450.3</v>
@@ -2406,13 +2406,13 @@
         <v>48</v>
       </c>
       <c r="C23">
-        <v>8911</v>
+        <v>8915</v>
       </c>
       <c r="D23">
         <v>1801.8</v>
       </c>
       <c r="E23">
-        <v>88985.40000000001</v>
+        <v>89020.7</v>
       </c>
       <c r="F23">
         <v>20939.2</v>
@@ -2427,7 +2427,7 @@
         <v>5420337</v>
       </c>
       <c r="J23">
-        <v>1641.7</v>
+        <v>1642.3</v>
       </c>
       <c r="K23">
         <v>386.3</v>
@@ -2450,13 +2450,13 @@
         <v>49</v>
       </c>
       <c r="C24">
-        <v>10770.2</v>
+        <v>10774.2</v>
       </c>
       <c r="D24">
         <v>1618.1</v>
       </c>
       <c r="E24">
-        <v>109548.5</v>
+        <v>109617.4</v>
       </c>
       <c r="F24">
         <v>21833.4</v>
@@ -2471,7 +2471,7 @@
         <v>5270736</v>
       </c>
       <c r="J24">
-        <v>2078.4</v>
+        <v>2079.7</v>
       </c>
       <c r="K24">
         <v>414.2</v>
@@ -2494,13 +2494,13 @@
         <v>50</v>
       </c>
       <c r="C25">
-        <v>19671.8</v>
+        <v>19679.8</v>
       </c>
       <c r="D25">
         <v>3265.6</v>
       </c>
       <c r="E25">
-        <v>204314</v>
+        <v>204422.8</v>
       </c>
       <c r="F25">
         <v>40826.99999999999</v>
@@ -2515,7 +2515,7 @@
         <v>10691073</v>
       </c>
       <c r="J25">
-        <v>1911.1</v>
+        <v>1912.1</v>
       </c>
       <c r="K25">
         <v>381.9</v>
@@ -2670,28 +2670,28 @@
         <v>48</v>
       </c>
       <c r="C29">
-        <v>650.2</v>
+        <v>654.2</v>
       </c>
       <c r="D29">
         <v>227.3</v>
       </c>
       <c r="E29">
-        <v>7724.999999999999</v>
+        <v>7790.8</v>
       </c>
       <c r="F29">
         <v>3571.6</v>
       </c>
       <c r="G29">
-        <v>11.88</v>
+        <v>11.91</v>
       </c>
       <c r="H29">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="I29">
         <v>699139</v>
       </c>
       <c r="J29">
-        <v>1104.9</v>
+        <v>1114.3</v>
       </c>
       <c r="K29">
         <v>510.9</v>
@@ -2714,28 +2714,28 @@
         <v>49</v>
       </c>
       <c r="C30">
-        <v>490.9999999999999</v>
+        <v>496.9999999999999</v>
       </c>
       <c r="D30">
         <v>200.5</v>
       </c>
       <c r="E30">
-        <v>5780.400000000001</v>
+        <v>5909</v>
       </c>
       <c r="F30">
         <v>3063</v>
       </c>
       <c r="G30">
-        <v>11.77</v>
+        <v>11.89</v>
       </c>
       <c r="H30">
-        <v>1.02</v>
+        <v>0.97</v>
       </c>
       <c r="I30">
         <v>629076</v>
       </c>
       <c r="J30">
-        <v>918.9</v>
+        <v>939.3</v>
       </c>
       <c r="K30">
         <v>486.9</v>
@@ -2758,28 +2758,28 @@
         <v>50</v>
       </c>
       <c r="C31">
-        <v>1099.6</v>
+        <v>1109.6</v>
       </c>
       <c r="D31">
         <v>419.7</v>
       </c>
       <c r="E31">
-        <v>13198.7</v>
+        <v>13403.8</v>
       </c>
       <c r="F31">
         <v>6301.8</v>
       </c>
       <c r="G31">
-        <v>12</v>
+        <v>12.08</v>
       </c>
       <c r="H31">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I31">
         <v>1328215</v>
       </c>
       <c r="J31">
-        <v>993.7</v>
+        <v>1009.2</v>
       </c>
       <c r="K31">
         <v>474.5</v>
@@ -2934,13 +2934,13 @@
         <v>48</v>
       </c>
       <c r="C35">
-        <v>34422.39999999999</v>
+        <v>34442.39999999999</v>
       </c>
       <c r="D35">
         <v>6860.9</v>
       </c>
       <c r="E35">
-        <v>329303.8</v>
+        <v>329513.1</v>
       </c>
       <c r="F35">
         <v>71113.89999999999</v>
@@ -2955,7 +2955,7 @@
         <v>34741634</v>
       </c>
       <c r="J35">
-        <v>947.9</v>
+        <v>948.5</v>
       </c>
       <c r="K35">
         <v>204.7</v>
@@ -2978,13 +2978,13 @@
         <v>49</v>
       </c>
       <c r="C36">
-        <v>35334.8</v>
+        <v>35358.8</v>
       </c>
       <c r="D36">
         <v>6461.7</v>
       </c>
       <c r="E36">
-        <v>346304.8</v>
+        <v>346562.5</v>
       </c>
       <c r="F36">
         <v>78046.29999999999</v>
@@ -2999,7 +2999,7 @@
         <v>32501940</v>
       </c>
       <c r="J36">
-        <v>1065.5</v>
+        <v>1066.3</v>
       </c>
       <c r="K36">
         <v>240.1</v>
@@ -3022,13 +3022,13 @@
         <v>50</v>
       </c>
       <c r="C37">
-        <v>69736.2</v>
+        <v>69780.2</v>
       </c>
       <c r="D37">
         <v>12954</v>
       </c>
       <c r="E37">
-        <v>689579.9</v>
+        <v>690058.8</v>
       </c>
       <c r="F37">
         <v>149482.9</v>
@@ -3043,7 +3043,7 @@
         <v>67243574</v>
       </c>
       <c r="J37">
-        <v>1025.5</v>
+        <v>1026.2</v>
       </c>
       <c r="K37">
         <v>222.3</v>
@@ -3638,13 +3638,13 @@
         <v>48</v>
       </c>
       <c r="C51">
-        <v>52574.8</v>
+        <v>52652.8</v>
       </c>
       <c r="D51">
         <v>7566.4</v>
       </c>
       <c r="E51">
-        <v>473658.2</v>
+        <v>474445.4</v>
       </c>
       <c r="F51">
         <v>82856.40000000001</v>
@@ -3659,7 +3659,7 @@
         <v>29127637</v>
       </c>
       <c r="J51">
-        <v>1626.1</v>
+        <v>1628.8</v>
       </c>
       <c r="K51">
         <v>284.5</v>
@@ -3682,13 +3682,13 @@
         <v>49</v>
       </c>
       <c r="C52">
-        <v>58154</v>
+        <v>58262</v>
       </c>
       <c r="D52">
         <v>6031.200000000001</v>
       </c>
       <c r="E52">
-        <v>595475.3</v>
+        <v>596777.1</v>
       </c>
       <c r="F52">
         <v>73788.89999999999</v>
@@ -3703,7 +3703,7 @@
         <v>28325684</v>
       </c>
       <c r="J52">
-        <v>2102.2</v>
+        <v>2106.8</v>
       </c>
       <c r="K52">
         <v>260.5</v>
@@ -3726,13 +3726,13 @@
         <v>50</v>
       </c>
       <c r="C53">
-        <v>110724.6</v>
+        <v>110910.6</v>
       </c>
       <c r="D53">
         <v>12988.8</v>
       </c>
       <c r="E53">
-        <v>1096968.4</v>
+        <v>1099126.6</v>
       </c>
       <c r="F53">
         <v>152524.4</v>
@@ -3747,7 +3747,7 @@
         <v>59641488</v>
       </c>
       <c r="J53">
-        <v>1839.3</v>
+        <v>1842.9</v>
       </c>
       <c r="K53">
         <v>255.7</v>
@@ -3770,31 +3770,31 @@
         <v>48</v>
       </c>
       <c r="C54">
-        <v>780</v>
+        <v>828.4000000000001</v>
       </c>
       <c r="D54">
-        <v>329.1</v>
+        <v>336.5</v>
       </c>
       <c r="E54">
-        <v>5685</v>
+        <v>6047.8</v>
       </c>
       <c r="F54">
-        <v>2391.6</v>
+        <v>2693.7</v>
       </c>
       <c r="G54">
-        <v>7.29</v>
+        <v>7.3</v>
       </c>
       <c r="H54">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="I54">
         <v>1026584</v>
       </c>
       <c r="J54">
-        <v>553.8</v>
+        <v>589.1</v>
       </c>
       <c r="K54">
-        <v>233</v>
+        <v>262.4</v>
       </c>
       <c r="L54" t="s">
         <v>103</v>
@@ -3814,31 +3814,31 @@
         <v>49</v>
       </c>
       <c r="C55">
-        <v>582.6</v>
+        <v>657.8</v>
       </c>
       <c r="D55">
-        <v>242.7</v>
+        <v>265.3</v>
       </c>
       <c r="E55">
-        <v>4668.2</v>
+        <v>5579</v>
       </c>
       <c r="F55">
-        <v>2330.9</v>
+        <v>2974.7</v>
       </c>
       <c r="G55">
-        <v>8.01</v>
+        <v>8.48</v>
       </c>
       <c r="H55">
-        <v>0.47</v>
+        <v>0.79</v>
       </c>
       <c r="I55">
         <v>880883</v>
       </c>
       <c r="J55">
-        <v>529.9</v>
+        <v>633.3</v>
       </c>
       <c r="K55">
-        <v>264.6</v>
+        <v>337.7</v>
       </c>
       <c r="L55" t="s">
         <v>104</v>
@@ -3858,28 +3858,28 @@
         <v>50</v>
       </c>
       <c r="C56">
-        <v>1313.6</v>
+        <v>1450.6</v>
       </c>
       <c r="D56">
         <v>636.8</v>
       </c>
       <c r="E56">
-        <v>10016.5</v>
+        <v>11568.9</v>
       </c>
       <c r="F56">
         <v>6026.5</v>
       </c>
       <c r="G56">
-        <v>7.63</v>
+        <v>7.98</v>
       </c>
       <c r="H56">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="I56">
         <v>1907467</v>
       </c>
       <c r="J56">
-        <v>525.1</v>
+        <v>606.5</v>
       </c>
       <c r="K56">
         <v>315.9</v>
@@ -4166,28 +4166,28 @@
         <v>48</v>
       </c>
       <c r="C63">
-        <v>257.8</v>
+        <v>261.8</v>
       </c>
       <c r="D63">
         <v>84.59999999999999</v>
       </c>
       <c r="E63">
-        <v>2685</v>
+        <v>2733</v>
       </c>
       <c r="F63">
         <v>1506.5</v>
       </c>
       <c r="G63">
-        <v>10.42</v>
+        <v>10.44</v>
       </c>
       <c r="H63">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="I63">
         <v>248495</v>
       </c>
       <c r="J63">
-        <v>1080.5</v>
+        <v>1099.8</v>
       </c>
       <c r="K63">
         <v>606.2</v>
@@ -4210,28 +4210,28 @@
         <v>49</v>
       </c>
       <c r="C64">
-        <v>299.2</v>
+        <v>300.2</v>
       </c>
       <c r="D64">
         <v>105.1</v>
       </c>
       <c r="E64">
-        <v>4045.3</v>
+        <v>4038.7</v>
       </c>
       <c r="F64">
         <v>1827</v>
       </c>
       <c r="G64">
-        <v>13.52</v>
+        <v>13.45</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="I64">
         <v>265547</v>
       </c>
       <c r="J64">
-        <v>1523.4</v>
+        <v>1520.9</v>
       </c>
       <c r="K64">
         <v>688</v>
@@ -4254,19 +4254,19 @@
         <v>50</v>
       </c>
       <c r="C65">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="D65">
         <v>160.3</v>
       </c>
       <c r="E65">
-        <v>6672.1</v>
+        <v>6711.7</v>
       </c>
       <c r="F65">
         <v>2886</v>
       </c>
       <c r="G65">
-        <v>12.11</v>
+        <v>12.07</v>
       </c>
       <c r="H65">
         <v>1.33</v>
@@ -4275,7 +4275,7 @@
         <v>514042</v>
       </c>
       <c r="J65">
-        <v>1298</v>
+        <v>1305.7</v>
       </c>
       <c r="K65">
         <v>561.4</v>
@@ -4298,28 +4298,28 @@
         <v>48</v>
       </c>
       <c r="C66">
-        <v>368.0000000000001</v>
+        <v>337</v>
       </c>
       <c r="D66">
         <v>97.80000000000001</v>
       </c>
       <c r="E66">
-        <v>4138.1</v>
+        <v>3881.300000000001</v>
       </c>
       <c r="F66">
         <v>1477.4</v>
       </c>
       <c r="G66">
-        <v>11.24</v>
+        <v>11.52</v>
       </c>
       <c r="H66">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="I66">
         <v>314211</v>
       </c>
       <c r="J66">
-        <v>1317</v>
+        <v>1235.3</v>
       </c>
       <c r="K66">
         <v>470.2</v>
@@ -4342,28 +4342,28 @@
         <v>49</v>
       </c>
       <c r="C67">
-        <v>593</v>
+        <v>543</v>
       </c>
       <c r="D67">
         <v>172.6</v>
       </c>
       <c r="E67">
-        <v>6252.2</v>
+        <v>5779.599999999999</v>
       </c>
       <c r="F67">
         <v>2428.9</v>
       </c>
       <c r="G67">
-        <v>10.54</v>
+        <v>10.64</v>
       </c>
       <c r="H67">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="I67">
         <v>307342</v>
       </c>
       <c r="J67">
-        <v>2034.3</v>
+        <v>1880.5</v>
       </c>
       <c r="K67">
         <v>790.3</v>
@@ -4386,28 +4386,28 @@
         <v>50</v>
       </c>
       <c r="C68">
-        <v>935</v>
+        <v>859</v>
       </c>
       <c r="D68">
         <v>186.3</v>
       </c>
       <c r="E68">
-        <v>10405.3</v>
+        <v>9686.4</v>
       </c>
       <c r="F68">
         <v>3010.1</v>
       </c>
       <c r="G68">
-        <v>11.13</v>
+        <v>11.28</v>
       </c>
       <c r="H68">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="I68">
         <v>621553</v>
       </c>
       <c r="J68">
-        <v>1674.1</v>
+        <v>1558.4</v>
       </c>
       <c r="K68">
         <v>484.3</v>
@@ -4430,31 +4430,31 @@
         <v>48</v>
       </c>
       <c r="C69">
-        <v>8476</v>
+        <v>8504.200000000001</v>
       </c>
       <c r="D69">
-        <v>1337.7</v>
+        <v>1334.6</v>
       </c>
       <c r="E69">
-        <v>82161</v>
+        <v>82459.29999999999</v>
       </c>
       <c r="F69">
-        <v>19903.9</v>
+        <v>19808.2</v>
       </c>
       <c r="G69">
-        <v>9.69</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H69">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I69">
         <v>8755516</v>
       </c>
       <c r="J69">
-        <v>938.4</v>
+        <v>941.8</v>
       </c>
       <c r="K69">
-        <v>227.3</v>
+        <v>226.2</v>
       </c>
       <c r="L69" t="s">
         <v>118</v>
@@ -4474,31 +4474,31 @@
         <v>49</v>
       </c>
       <c r="C70">
-        <v>11861</v>
+        <v>11933.6</v>
       </c>
       <c r="D70">
-        <v>1807</v>
+        <v>1808.9</v>
       </c>
       <c r="E70">
-        <v>116318.8</v>
+        <v>117987.8</v>
       </c>
       <c r="F70">
-        <v>22948.1</v>
+        <v>23008.5</v>
       </c>
       <c r="G70">
-        <v>9.81</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="H70">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="I70">
         <v>8642743</v>
       </c>
       <c r="J70">
-        <v>1345.9</v>
+        <v>1365.2</v>
       </c>
       <c r="K70">
-        <v>265.5</v>
+        <v>266.2</v>
       </c>
       <c r="L70" t="s">
         <v>119</v>
@@ -4518,19 +4518,19 @@
         <v>50</v>
       </c>
       <c r="C71">
-        <v>20236.8</v>
+        <v>20342.6</v>
       </c>
       <c r="D71">
-        <v>3028.599999999999</v>
+        <v>3027.9</v>
       </c>
       <c r="E71">
-        <v>198633.7</v>
+        <v>200808.7</v>
       </c>
       <c r="F71">
-        <v>42951.2</v>
+        <v>42925.2</v>
       </c>
       <c r="G71">
-        <v>9.82</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="H71">
         <v>0.5600000000000001</v>
@@ -4539,10 +4539,10 @@
         <v>17398259</v>
       </c>
       <c r="J71">
-        <v>1141.7</v>
+        <v>1154.2</v>
       </c>
       <c r="K71">
-        <v>246.9</v>
+        <v>246.7</v>
       </c>
       <c r="L71" t="s">
         <v>120</v>
@@ -4562,31 +4562,31 @@
         <v>48</v>
       </c>
       <c r="C72">
-        <v>295.4</v>
+        <v>297.6</v>
       </c>
       <c r="D72">
-        <v>230.9</v>
+        <v>236.9</v>
       </c>
       <c r="E72">
-        <v>4553.7</v>
+        <v>4613.7</v>
       </c>
       <c r="F72">
-        <v>3607.4</v>
+        <v>3964.2</v>
       </c>
       <c r="G72">
-        <v>15.42</v>
+        <v>15.5</v>
       </c>
       <c r="H72">
-        <v>0.09</v>
+        <v>0.55</v>
       </c>
       <c r="I72">
         <v>2661342</v>
       </c>
       <c r="J72">
-        <v>171.1</v>
+        <v>173.4</v>
       </c>
       <c r="K72">
-        <v>135.5</v>
+        <v>149</v>
       </c>
       <c r="L72" t="s">
         <v>121</v>
@@ -4606,31 +4606,31 @@
         <v>49</v>
       </c>
       <c r="C73">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="D73">
         <v>313</v>
       </c>
       <c r="E73">
-        <v>7113.099999999999</v>
+        <v>7037.4</v>
       </c>
       <c r="F73">
-        <v>3624.3</v>
+        <v>3625.4</v>
       </c>
       <c r="G73">
-        <v>12.16</v>
+        <v>12.18</v>
       </c>
       <c r="H73">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I73">
         <v>2706032</v>
       </c>
       <c r="J73">
-        <v>262.9</v>
+        <v>260.1</v>
       </c>
       <c r="K73">
-        <v>133.9</v>
+        <v>134</v>
       </c>
       <c r="L73" t="s">
         <v>122</v>
@@ -4650,31 +4650,31 @@
         <v>50</v>
       </c>
       <c r="C74">
-        <v>777.1999999999999</v>
+        <v>767.9999999999999</v>
       </c>
       <c r="D74">
-        <v>527.3000000000001</v>
+        <v>527.2</v>
       </c>
       <c r="E74">
-        <v>10762</v>
+        <v>10720</v>
       </c>
       <c r="F74">
-        <v>7368.5</v>
+        <v>7363.199999999999</v>
       </c>
       <c r="G74">
-        <v>13.85</v>
+        <v>13.96</v>
       </c>
       <c r="H74">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>5367374</v>
       </c>
       <c r="J74">
-        <v>200.5</v>
+        <v>199.7</v>
       </c>
       <c r="K74">
-        <v>137.3</v>
+        <v>137.2</v>
       </c>
       <c r="L74" t="s">
         <v>123</v>
@@ -4958,13 +4958,13 @@
         <v>48</v>
       </c>
       <c r="C81">
-        <v>16402.8</v>
+        <v>16448.8</v>
       </c>
       <c r="D81">
         <v>3285.7</v>
       </c>
       <c r="E81">
-        <v>187932.1</v>
+        <v>188472.8</v>
       </c>
       <c r="F81">
         <v>37113.8</v>
@@ -4979,7 +4979,7 @@
         <v>9857376</v>
       </c>
       <c r="J81">
-        <v>1906.5</v>
+        <v>1912</v>
       </c>
       <c r="K81">
         <v>376.5</v>
@@ -5002,28 +5002,28 @@
         <v>49</v>
       </c>
       <c r="C82">
-        <v>23908.6</v>
+        <v>23960.6</v>
       </c>
       <c r="D82">
         <v>3552.4</v>
       </c>
       <c r="E82">
-        <v>284342.1</v>
+        <v>285019.6</v>
       </c>
       <c r="F82">
         <v>45133.7</v>
       </c>
       <c r="G82">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="H82">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I82">
         <v>9455001</v>
       </c>
       <c r="J82">
-        <v>3007.3</v>
+        <v>3014.5</v>
       </c>
       <c r="K82">
         <v>477.4</v>
@@ -5046,13 +5046,13 @@
         <v>50</v>
       </c>
       <c r="C83">
-        <v>40311.4</v>
+        <v>40409.4</v>
       </c>
       <c r="D83">
         <v>6607.7</v>
       </c>
       <c r="E83">
-        <v>492273.4</v>
+        <v>493530.8999999999</v>
       </c>
       <c r="F83">
         <v>80875.20000000001</v>
@@ -5067,7 +5067,7 @@
         <v>19312377</v>
       </c>
       <c r="J83">
-        <v>2549</v>
+        <v>2555.5</v>
       </c>
       <c r="K83">
         <v>418.8</v>
@@ -5222,19 +5222,19 @@
         <v>48</v>
       </c>
       <c r="C87">
-        <v>3047.8</v>
+        <v>3049.8</v>
       </c>
       <c r="D87">
         <v>660.0999999999999</v>
       </c>
       <c r="E87">
-        <v>35738.89999999999</v>
+        <v>35757.1</v>
       </c>
       <c r="F87">
         <v>10186.1</v>
       </c>
       <c r="G87">
-        <v>11.73</v>
+        <v>11.72</v>
       </c>
       <c r="H87">
         <v>0.66</v>
@@ -5243,7 +5243,7 @@
         <v>2791028</v>
       </c>
       <c r="J87">
-        <v>1280.5</v>
+        <v>1281.1</v>
       </c>
       <c r="K87">
         <v>365</v>
@@ -5266,13 +5266,13 @@
         <v>49</v>
       </c>
       <c r="C88">
-        <v>3653.8</v>
+        <v>3654.8</v>
       </c>
       <c r="D88">
         <v>512.3</v>
       </c>
       <c r="E88">
-        <v>39161</v>
+        <v>39192.7</v>
       </c>
       <c r="F88">
         <v>7293.4</v>
@@ -5281,13 +5281,13 @@
         <v>10.72</v>
       </c>
       <c r="H88">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="I88">
         <v>2664476</v>
       </c>
       <c r="J88">
-        <v>1469.7</v>
+        <v>1470.9</v>
       </c>
       <c r="K88">
         <v>273.7</v>
@@ -5310,28 +5310,28 @@
         <v>50</v>
       </c>
       <c r="C89">
-        <v>6658.199999999999</v>
+        <v>6661.199999999999</v>
       </c>
       <c r="D89">
         <v>953.9000000000001</v>
       </c>
       <c r="E89">
-        <v>75859.90000000001</v>
+        <v>75911.40000000001</v>
       </c>
       <c r="F89">
         <v>11916.5</v>
       </c>
       <c r="G89">
-        <v>11.39</v>
+        <v>11.4</v>
       </c>
       <c r="H89">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I89">
         <v>5455504</v>
       </c>
       <c r="J89">
-        <v>1390.5</v>
+        <v>1391.5</v>
       </c>
       <c r="K89">
         <v>218.4</v>
@@ -5354,19 +5354,19 @@
         <v>48</v>
       </c>
       <c r="C90">
-        <v>2169.8</v>
+        <v>2183.8</v>
       </c>
       <c r="D90">
         <v>355.8</v>
       </c>
       <c r="E90">
-        <v>18875.3</v>
+        <v>19031.5</v>
       </c>
       <c r="F90">
         <v>4339</v>
       </c>
       <c r="G90">
-        <v>8.699999999999999</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="H90">
         <v>0.49</v>
@@ -5375,7 +5375,7 @@
         <v>1043845</v>
       </c>
       <c r="J90">
-        <v>1808.2</v>
+        <v>1823.2</v>
       </c>
       <c r="K90">
         <v>415.7</v>
@@ -5398,28 +5398,28 @@
         <v>49</v>
       </c>
       <c r="C91">
-        <v>1937.8</v>
+        <v>1950.8</v>
       </c>
       <c r="D91">
         <v>350.1</v>
       </c>
       <c r="E91">
-        <v>19108.2</v>
+        <v>19361.6</v>
       </c>
       <c r="F91">
         <v>5137.300000000001</v>
       </c>
       <c r="G91">
-        <v>9.859999999999999</v>
+        <v>9.92</v>
       </c>
       <c r="H91">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="I91">
         <v>1050156</v>
       </c>
       <c r="J91">
-        <v>1819.6</v>
+        <v>1843.7</v>
       </c>
       <c r="K91">
         <v>489.2</v>
@@ -5442,19 +5442,19 @@
         <v>50</v>
       </c>
       <c r="C92">
-        <v>4099.4</v>
+        <v>4122.4</v>
       </c>
       <c r="D92">
         <v>589</v>
       </c>
       <c r="E92">
-        <v>38473.3</v>
+        <v>38774.8</v>
       </c>
       <c r="F92">
         <v>7443.9</v>
       </c>
       <c r="G92">
-        <v>9.390000000000001</v>
+        <v>9.41</v>
       </c>
       <c r="H92">
         <v>0.4</v>
@@ -5463,7 +5463,7 @@
         <v>2094001</v>
       </c>
       <c r="J92">
-        <v>1837.3</v>
+        <v>1851.7</v>
       </c>
       <c r="K92">
         <v>355.5</v>
@@ -5486,31 +5486,31 @@
         <v>48</v>
       </c>
       <c r="C93">
-        <v>41052.8</v>
+        <v>39333</v>
       </c>
       <c r="D93">
-        <v>4951</v>
+        <v>4956.8</v>
       </c>
       <c r="E93">
-        <v>430383.7</v>
+        <v>404830.8</v>
       </c>
       <c r="F93">
-        <v>59090.60000000001</v>
+        <v>59531.10000000001</v>
       </c>
       <c r="G93">
-        <v>10.48</v>
+        <v>10.29</v>
       </c>
       <c r="H93">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="I93">
         <v>24103540</v>
       </c>
       <c r="J93">
-        <v>1785.6</v>
+        <v>1679.5</v>
       </c>
       <c r="K93">
-        <v>245.2</v>
+        <v>247</v>
       </c>
       <c r="L93" t="s">
         <v>142</v>
@@ -5530,28 +5530,28 @@
         <v>49</v>
       </c>
       <c r="C94">
-        <v>41299.2</v>
+        <v>39228.2</v>
       </c>
       <c r="D94">
         <v>5166.700000000001</v>
       </c>
       <c r="E94">
-        <v>447060</v>
+        <v>427826</v>
       </c>
       <c r="F94">
         <v>61911.3</v>
       </c>
       <c r="G94">
-        <v>10.82</v>
+        <v>10.91</v>
       </c>
       <c r="H94">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I94">
         <v>23179515</v>
       </c>
       <c r="J94">
-        <v>1928.7</v>
+        <v>1845.7</v>
       </c>
       <c r="K94">
         <v>267.1</v>
@@ -5574,31 +5574,31 @@
         <v>50</v>
       </c>
       <c r="C95">
-        <v>82317</v>
+        <v>78535.2</v>
       </c>
       <c r="D95">
-        <v>9598.200000000001</v>
+        <v>9621.200000000001</v>
       </c>
       <c r="E95">
-        <v>892794.3999999999</v>
+        <v>848445.3999999999</v>
       </c>
       <c r="F95">
-        <v>117028.9</v>
+        <v>118377.8</v>
       </c>
       <c r="G95">
-        <v>10.85</v>
+        <v>10.8</v>
       </c>
       <c r="H95">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="I95">
         <v>47283055</v>
       </c>
       <c r="J95">
-        <v>1888.2</v>
+        <v>1794.4</v>
       </c>
       <c r="K95">
-        <v>247.5</v>
+        <v>250.4</v>
       </c>
       <c r="L95" t="s">
         <v>144</v>

--- a/data_output/PYLL/PYLL_EU/EU_PYLL_All_age_groups_['Female', 'Male', 'Total'].xlsx
+++ b/data_output/PYLL/PYLL_EU/EU_PYLL_All_age_groups_['Female', 'Male', 'Total'].xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="317">
   <si>
     <t>Location</t>
   </si>
@@ -22,10 +22,10 @@
     <t>Sex</t>
   </si>
   <si>
-    <t>Excess_mortality_Mean</t>
-  </si>
-  <si>
-    <t>Excess_mortality_fluc</t>
+    <t>Excess_mortality</t>
+  </si>
+  <si>
+    <t>Conf_interval</t>
   </si>
   <si>
     <t>PYLL_mean</t>
@@ -58,12 +58,6 @@
     <t>PYLL_STD ±</t>
   </si>
   <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
@@ -94,12 +88,6 @@
     <t>France</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
     <t>Greece</t>
   </si>
   <si>
@@ -169,904 +157,814 @@
     <t>Total</t>
   </si>
   <si>
-    <t>17268.3 (±4514.5)</t>
-  </si>
-  <si>
-    <t>43782.0 (±5674.5)</t>
-  </si>
-  <si>
-    <t>60883.4 (±8661.7)</t>
-  </si>
-  <si>
-    <t>41300.4 (±6812.6)</t>
-  </si>
-  <si>
-    <t>145794.0 (±9166.6)</t>
-  </si>
-  <si>
-    <t>194220.1 (±14925.3)</t>
-  </si>
-  <si>
-    <t>41987.6 (±12270.2)</t>
-  </si>
-  <si>
-    <t>58688.7 (±16009.5)</t>
-  </si>
-  <si>
-    <t>99692.4 (±25475.7)</t>
-  </si>
-  <si>
-    <t>85342.1 (±17899.1)</t>
-  </si>
-  <si>
-    <t>86095.7 (±19824.8)</t>
-  </si>
-  <si>
-    <t>172732.5 (±35578.3)</t>
-  </si>
-  <si>
-    <t>91966.9 (±15182.6)</t>
-  </si>
-  <si>
-    <t>123801.1 (±17131.1)</t>
-  </si>
-  <si>
-    <t>223111.5 (±31278.6)</t>
-  </si>
-  <si>
-    <t>25538.9 (±9225.9)</t>
-  </si>
-  <si>
-    <t>28616.6 (±7532.6)</t>
-  </si>
-  <si>
-    <t>55476.5 (±15053.8)</t>
-  </si>
-  <si>
-    <t>3057.3 (±1524.1)</t>
-  </si>
-  <si>
-    <t>4886.3 (±2566.2)</t>
-  </si>
-  <si>
-    <t>7592.6 (±3141.5)</t>
-  </si>
-  <si>
-    <t>89020.7 (±20939.2)</t>
-  </si>
-  <si>
-    <t>109617.4 (±21833.4)</t>
-  </si>
-  <si>
-    <t>204422.8 (±40827.0)</t>
-  </si>
-  <si>
-    <t>9050.9 (±3475.5)</t>
-  </si>
-  <si>
-    <t>14493.6 (±5296.1)</t>
-  </si>
-  <si>
-    <t>23533.5 (±9830.5)</t>
-  </si>
-  <si>
-    <t>7790.8 (±3571.6)</t>
-  </si>
-  <si>
-    <t>5909.0 (±3063.0)</t>
-  </si>
-  <si>
-    <t>13403.8 (±6301.8)</t>
-  </si>
-  <si>
-    <t>15746.3 (±6513.0)</t>
-  </si>
-  <si>
-    <t>19439.0 (±7264.5)</t>
-  </si>
-  <si>
-    <t>35213.3 (±12843.0)</t>
-  </si>
-  <si>
-    <t>329513.1 (±71113.9)</t>
-  </si>
-  <si>
-    <t>346562.5 (±78046.3)</t>
-  </si>
-  <si>
-    <t>690058.8 (±149482.9)</t>
-  </si>
-  <si>
-    <t>1437.8 (±2001.3)</t>
-  </si>
-  <si>
-    <t>2312.1 (±1980.7)</t>
-  </si>
-  <si>
-    <t>3173.6 (±3672.8)</t>
-  </si>
-  <si>
-    <t>972467.3 (±2671268.2)</t>
-  </si>
-  <si>
-    <t>43409.8 (±17581.5)</t>
-  </si>
-  <si>
-    <t>40349.7 (±11800.8)</t>
-  </si>
-  <si>
-    <t>83231.0 (±28906.5)</t>
-  </si>
-  <si>
-    <t>81085.0 (±14649.2)</t>
-  </si>
-  <si>
-    <t>75732.5 (±16429.2)</t>
-  </si>
-  <si>
-    <t>161116.5 (±28588.9)</t>
-  </si>
-  <si>
-    <t>1141.5 (±795.0)</t>
-  </si>
-  <si>
-    <t>1915.1 (±1067.3)</t>
-  </si>
-  <si>
-    <t>2604.1 (±1765.0)</t>
-  </si>
-  <si>
-    <t>474445.4 (±82856.4)</t>
-  </si>
-  <si>
-    <t>596777.1 (±73788.9)</t>
-  </si>
-  <si>
-    <t>1099126.6 (±152524.4)</t>
-  </si>
-  <si>
-    <t>6047.8 (±2693.7)</t>
-  </si>
-  <si>
-    <t>5579.0 (±2974.7)</t>
-  </si>
-  <si>
-    <t>11568.9 (±6026.5)</t>
-  </si>
-  <si>
-    <t>23398.3 (±9003.3)</t>
-  </si>
-  <si>
-    <t>27160.2 (±12499.5)</t>
-  </si>
-  <si>
-    <t>53002.4 (±22243.3)</t>
-  </si>
-  <si>
-    <t>3270.8 (±1529.1)</t>
-  </si>
-  <si>
-    <t>4008.4 (±2288.1)</t>
-  </si>
-  <si>
-    <t>6923.6 (±3546.0)</t>
-  </si>
-  <si>
-    <t>2733.0 (±1506.5)</t>
-  </si>
-  <si>
-    <t>4038.7 (±1827.0)</t>
-  </si>
-  <si>
-    <t>6711.7 (±2886.0)</t>
-  </si>
-  <si>
-    <t>3881.3 (±1477.4)</t>
-  </si>
-  <si>
-    <t>5779.6 (±2428.9)</t>
-  </si>
-  <si>
-    <t>9686.4 (±3010.1)</t>
-  </si>
-  <si>
-    <t>82459.3 (±19808.2)</t>
-  </si>
-  <si>
-    <t>117987.8 (±23008.5)</t>
-  </si>
-  <si>
-    <t>200808.7 (±42925.2)</t>
-  </si>
-  <si>
-    <t>4613.7 (±3964.2)</t>
-  </si>
-  <si>
-    <t>7037.4 (±3625.4)</t>
-  </si>
-  <si>
-    <t>10720.0 (±7363.2)</t>
-  </si>
-  <si>
-    <t>413043.5 (±82102.2)</t>
-  </si>
-  <si>
-    <t>538206.4 (±87852.6)</t>
-  </si>
-  <si>
-    <t>990455.1 (±170213.5)</t>
-  </si>
-  <si>
-    <t>70277.7 (±16786.9)</t>
-  </si>
-  <si>
-    <t>67669.5 (±17764.9)</t>
-  </si>
-  <si>
-    <t>140361.9 (±29396.3)</t>
-  </si>
-  <si>
-    <t>188472.8 (±37113.8)</t>
-  </si>
-  <si>
-    <t>285019.6 (±45133.7)</t>
-  </si>
-  <si>
-    <t>493530.9 (±80875.2)</t>
-  </si>
-  <si>
-    <t>39207.6 (±13675.7)</t>
-  </si>
-  <si>
-    <t>82262.8 (±24267.0)</t>
-  </si>
-  <si>
-    <t>121240.2 (±36021.0)</t>
-  </si>
-  <si>
-    <t>35757.1 (±10186.1)</t>
-  </si>
-  <si>
-    <t>39192.7 (±7293.4)</t>
-  </si>
-  <si>
-    <t>75911.4 (±11916.5)</t>
-  </si>
-  <si>
-    <t>19031.5 (±4339.0)</t>
-  </si>
-  <si>
-    <t>19361.6 (±5137.3)</t>
-  </si>
-  <si>
-    <t>38774.8 (±7443.9)</t>
-  </si>
-  <si>
-    <t>404830.8 (±59531.1)</t>
-  </si>
-  <si>
-    <t>427826.0 (±61911.3)</t>
-  </si>
-  <si>
-    <t>848445.4 (±118377.8)</t>
-  </si>
-  <si>
-    <t>32142.9 (±6941.9)</t>
-  </si>
-  <si>
-    <t>45934.4 (±10124.7)</t>
-  </si>
-  <si>
-    <t>75130.5 (±13536.9)</t>
-  </si>
-  <si>
-    <t>40763.5 (±6281.2)</t>
-  </si>
-  <si>
-    <t>51560.3 (±11939.8)</t>
-  </si>
-  <si>
-    <t>90640.5 (±17183.8)</t>
-  </si>
-  <si>
-    <t>8.77 (±0.72)</t>
-  </si>
-  <si>
-    <t>10.8 (±0.38)</t>
-  </si>
-  <si>
-    <t>10.11 (±0.46)</t>
-  </si>
-  <si>
-    <t>12.57 (±0.16)</t>
-  </si>
-  <si>
-    <t>25.32 (±0.59)</t>
-  </si>
-  <si>
-    <t>21.54 (±0.52)</t>
-  </si>
-  <si>
-    <t>10.15 (±0.27)</t>
-  </si>
-  <si>
-    <t>10.29 (±0.49)</t>
-  </si>
-  <si>
-    <t>10.2 (±0.3)</t>
-  </si>
-  <si>
-    <t>8.6 (±0.42)</t>
-  </si>
-  <si>
-    <t>9.34 (±0.51)</t>
-  </si>
-  <si>
-    <t>9.04 (±0.47)</t>
-  </si>
-  <si>
-    <t>12.58 (±0.19)</t>
-  </si>
-  <si>
-    <t>12.03 (±0.04)</t>
-  </si>
-  <si>
-    <t>12.68 (±0.08)</t>
-  </si>
-  <si>
-    <t>9.3 (±0.58)</t>
-  </si>
-  <si>
-    <t>9.6 (±0.29)</t>
-  </si>
-  <si>
-    <t>9.72 (±0.28)</t>
-  </si>
-  <si>
-    <t>12.16 (±0.86)</t>
-  </si>
-  <si>
-    <t>14.18 (±0.56)</t>
-  </si>
-  <si>
-    <t>12.98 (±0.46)</t>
-  </si>
-  <si>
-    <t>9.99 (±0.27)</t>
-  </si>
-  <si>
-    <t>10.17 (±0.44)</t>
-  </si>
-  <si>
-    <t>10.39 (±0.3)</t>
-  </si>
-  <si>
-    <t>11.82 (±0.34)</t>
-  </si>
-  <si>
-    <t>8.83 (±0.23)</t>
-  </si>
-  <si>
-    <t>9.85 (±0.55)</t>
-  </si>
-  <si>
-    <t>11.91 (±0.98)</t>
-  </si>
-  <si>
-    <t>11.89 (±0.97)</t>
-  </si>
-  <si>
-    <t>12.08 (±0.81)</t>
-  </si>
-  <si>
-    <t>11.04 (±0.54)</t>
-  </si>
-  <si>
-    <t>11.78 (±0.35)</t>
-  </si>
-  <si>
-    <t>11.68 (±0.47)</t>
-  </si>
-  <si>
-    <t>9.57 (±0.13)</t>
-  </si>
-  <si>
-    <t>9.8 (±0.35)</t>
-  </si>
-  <si>
-    <t>9.89 (±0.26)</t>
-  </si>
-  <si>
-    <t>8.1 (±0.34)</t>
-  </si>
-  <si>
-    <t>10.29 (±0.2)</t>
-  </si>
-  <si>
-    <t>9.69 (±0.35)</t>
-  </si>
-  <si>
-    <t>11.07 (±1.11)</t>
-  </si>
-  <si>
-    <t>8.98 (±0.2)</t>
-  </si>
-  <si>
-    <t>9.54 (±0.11)</t>
-  </si>
-  <si>
-    <t>9.21 (±0.06)</t>
-  </si>
-  <si>
-    <t>10.72 (±0.29)</t>
-  </si>
-  <si>
-    <t>10.86 (±0.53)</t>
-  </si>
-  <si>
-    <t>11.09 (±0.38)</t>
-  </si>
-  <si>
-    <t>29.12 (±4.36)</t>
-  </si>
-  <si>
-    <t>22.17 (±0.65)</t>
-  </si>
-  <si>
-    <t>24.43 (±0.98)</t>
-  </si>
-  <si>
-    <t>9.01 (±0.24)</t>
-  </si>
-  <si>
-    <t>10.24 (±0.19)</t>
-  </si>
-  <si>
-    <t>9.91 (±0.19)</t>
-  </si>
-  <si>
-    <t>7.3 (±0.2)</t>
-  </si>
-  <si>
-    <t>8.48 (±0.79)</t>
-  </si>
-  <si>
-    <t>7.98 (±0.45)</t>
-  </si>
-  <si>
-    <t>10.24 (±0.43)</t>
-  </si>
-  <si>
-    <t>11.58 (±0.93)</t>
-  </si>
-  <si>
-    <t>11.46 (±0.76)</t>
-  </si>
-  <si>
-    <t>12.41 (±1.01)</t>
-  </si>
-  <si>
-    <t>12.85 (±1.3)</t>
-  </si>
-  <si>
-    <t>12.34 (±1.48)</t>
-  </si>
-  <si>
-    <t>10.44 (±1.8)</t>
-  </si>
-  <si>
-    <t>13.45 (±1.02)</t>
-  </si>
-  <si>
-    <t>12.07 (±1.33)</t>
-  </si>
-  <si>
-    <t>11.52 (±0.8)</t>
-  </si>
-  <si>
-    <t>10.64 (±0.83)</t>
-  </si>
-  <si>
-    <t>11.28 (±0.87)</t>
-  </si>
-  <si>
-    <t>9.7 (±0.69)</t>
-  </si>
-  <si>
-    <t>9.89 (±0.37)</t>
-  </si>
-  <si>
-    <t>9.87 (±0.56)</t>
-  </si>
-  <si>
-    <t>15.5 (±0.55)</t>
-  </si>
-  <si>
-    <t>12.18 (±0.21)</t>
-  </si>
-  <si>
-    <t>13.96 (±0.0)</t>
-  </si>
-  <si>
-    <t>11.07 (±0.21)</t>
-  </si>
-  <si>
-    <t>11.87 (±0.21)</t>
-  </si>
-  <si>
-    <t>11.99 (±0.17)</t>
-  </si>
-  <si>
-    <t>9.09 (±0.43)</t>
-  </si>
-  <si>
-    <t>10.2 (±0.38)</t>
-  </si>
-  <si>
-    <t>9.78 (±0.22)</t>
-  </si>
-  <si>
-    <t>11.46 (±0.03)</t>
-  </si>
-  <si>
-    <t>11.9 (±0.1)</t>
-  </si>
-  <si>
-    <t>12.21 (±0.01)</t>
-  </si>
-  <si>
-    <t>10.95 (±0.07)</t>
-  </si>
-  <si>
-    <t>12.1 (±0.25)</t>
-  </si>
-  <si>
-    <t>11.95 (±0.32)</t>
-  </si>
-  <si>
-    <t>11.72 (±0.66)</t>
-  </si>
-  <si>
-    <t>10.72 (±0.44)</t>
-  </si>
-  <si>
-    <t>11.4 (±0.13)</t>
-  </si>
-  <si>
-    <t>8.71 (±0.49)</t>
-  </si>
-  <si>
-    <t>9.92 (±0.73)</t>
-  </si>
-  <si>
-    <t>9.41 (±0.4)</t>
-  </si>
-  <si>
-    <t>10.29 (±0.19)</t>
-  </si>
-  <si>
-    <t>10.91 (±0.12)</t>
-  </si>
-  <si>
-    <t>10.8 (±0.17)</t>
-  </si>
-  <si>
-    <t>9.36 (±0.05)</t>
-  </si>
-  <si>
-    <t>9.27 (±0.7)</t>
-  </si>
-  <si>
-    <t>9.08 (±0.33)</t>
-  </si>
-  <si>
-    <t>8.46 (±0.32)</t>
-  </si>
-  <si>
-    <t>9.11 (±0.84)</t>
-  </si>
-  <si>
-    <t>8.74 (±0.6)</t>
-  </si>
-  <si>
-    <t>1223.3 (±319.8)</t>
-  </si>
-  <si>
-    <t>3109.3 (±403.0)</t>
-  </si>
-  <si>
-    <t>2159.2 (±307.2)</t>
-  </si>
-  <si>
-    <t>2674.5 (±441.2)</t>
-  </si>
-  <si>
-    <t>10521.3 (±661.5)</t>
-  </si>
-  <si>
-    <t>6628.8 (±509.4)</t>
-  </si>
-  <si>
-    <t>928.3 (±271.3)</t>
-  </si>
-  <si>
-    <t>1340.7 (±365.7)</t>
-  </si>
-  <si>
-    <t>1120.1 (±286.2)</t>
-  </si>
-  <si>
-    <t>1461.9 (±306.6)</t>
-  </si>
-  <si>
-    <t>1516.5 (±349.2)</t>
-  </si>
-  <si>
-    <t>1500.1 (±309.0)</t>
-  </si>
-  <si>
-    <t>2570.4 (±424.3)</t>
-  </si>
-  <si>
-    <t>3675.4 (±508.6)</t>
-  </si>
-  <si>
-    <t>3211.9 (±450.3)</t>
-  </si>
-  <si>
-    <t>1225.4 (±442.7)</t>
-  </si>
-  <si>
-    <t>1452.6 (±382.4)</t>
-  </si>
-  <si>
-    <t>1368.4 (±371.3)</t>
-  </si>
-  <si>
-    <t>687.1 (±342.5)</t>
-  </si>
-  <si>
-    <t>1139.5 (±598.4)</t>
-  </si>
-  <si>
-    <t>868.9 (±359.5)</t>
-  </si>
-  <si>
-    <t>1642.3 (±386.3)</t>
-  </si>
-  <si>
-    <t>2079.7 (±414.2)</t>
-  </si>
-  <si>
-    <t>1912.1 (±381.9)</t>
-  </si>
-  <si>
-    <t>301.2 (±115.7)</t>
-  </si>
-  <si>
-    <t>493.3 (±180.2)</t>
-  </si>
-  <si>
-    <t>396.0 (±165.4)</t>
-  </si>
-  <si>
-    <t>1114.3 (±510.9)</t>
-  </si>
-  <si>
-    <t>939.3 (±486.9)</t>
-  </si>
-  <si>
-    <t>1009.2 (±474.5)</t>
-  </si>
-  <si>
-    <t>563.3 (±233.0)</t>
-  </si>
-  <si>
-    <t>713.0 (±266.4)</t>
-  </si>
-  <si>
-    <t>637.7 (±232.6)</t>
-  </si>
-  <si>
-    <t>948.5 (±204.7)</t>
-  </si>
-  <si>
-    <t>1066.3 (±240.1)</t>
-  </si>
-  <si>
-    <t>1026.2 (±222.3)</t>
-  </si>
-  <si>
-    <t>74.6 (±103.9)</t>
-  </si>
-  <si>
-    <t>129.1 (±110.6)</t>
-  </si>
-  <si>
-    <t>85.4 (±98.8)</t>
-  </si>
-  <si>
-    <t>1170.8 (±3216.2)</t>
-  </si>
-  <si>
-    <t>789.8 (±319.9)</t>
-  </si>
-  <si>
-    <t>774.4 (±226.5)</t>
-  </si>
-  <si>
-    <t>777.4 (±270.0)</t>
-  </si>
-  <si>
-    <t>1594.3 (±288.0)</t>
-  </si>
-  <si>
-    <t>1618.5 (±351.1)</t>
-  </si>
-  <si>
-    <t>1649.9 (±292.8)</t>
-  </si>
-  <si>
-    <t>644.5 (±448.8)</t>
-  </si>
-  <si>
-    <t>1024.7 (±571.1)</t>
-  </si>
-  <si>
-    <t>715.4 (±484.9)</t>
-  </si>
-  <si>
-    <t>1628.8 (±284.5)</t>
-  </si>
-  <si>
-    <t>2106.8 (±260.5)</t>
-  </si>
-  <si>
-    <t>1842.9 (±255.7)</t>
-  </si>
-  <si>
-    <t>589.1 (±262.4)</t>
-  </si>
-  <si>
-    <t>633.3 (±337.7)</t>
-  </si>
-  <si>
-    <t>606.5 (±315.9)</t>
-  </si>
-  <si>
-    <t>1572.2 (±604.9)</t>
-  </si>
-  <si>
-    <t>2083.1 (±958.7)</t>
-  </si>
-  <si>
-    <t>1898.3 (±796.6)</t>
-  </si>
-  <si>
-    <t>1051.9 (±491.8)</t>
-  </si>
-  <si>
-    <t>1273.1 (±726.7)</t>
-  </si>
-  <si>
-    <t>1106.4 (±566.6)</t>
-  </si>
-  <si>
-    <t>1099.8 (±606.2)</t>
-  </si>
-  <si>
-    <t>1520.9 (±688.0)</t>
-  </si>
-  <si>
-    <t>1305.7 (±561.4)</t>
-  </si>
-  <si>
-    <t>1235.3 (±470.2)</t>
-  </si>
-  <si>
-    <t>1880.5 (±790.3)</t>
-  </si>
-  <si>
-    <t>1558.4 (±484.3)</t>
-  </si>
-  <si>
-    <t>941.8 (±226.2)</t>
-  </si>
-  <si>
-    <t>1365.2 (±266.2)</t>
-  </si>
-  <si>
-    <t>1154.2 (±246.7)</t>
-  </si>
-  <si>
-    <t>173.4 (±149.0)</t>
-  </si>
-  <si>
-    <t>260.1 (±134.0)</t>
-  </si>
-  <si>
-    <t>199.7 (±137.2)</t>
-  </si>
-  <si>
-    <t>2110.6 (±419.5)</t>
-  </si>
-  <si>
-    <t>2930.5 (±478.4)</t>
-  </si>
-  <si>
-    <t>2610.9 (±448.7)</t>
-  </si>
-  <si>
-    <t>1294.6 (±309.2)</t>
-  </si>
-  <si>
-    <t>1393.8 (±365.9)</t>
-  </si>
-  <si>
-    <t>1364.9 (±285.9)</t>
-  </si>
-  <si>
-    <t>1912.0 (±376.5)</t>
-  </si>
-  <si>
-    <t>3014.5 (±477.4)</t>
-  </si>
-  <si>
-    <t>2555.5 (±418.8)</t>
-  </si>
-  <si>
-    <t>1104.9 (±385.4)</t>
-  </si>
-  <si>
-    <t>2439.7 (±719.7)</t>
-  </si>
-  <si>
-    <t>1752.0 (±520.5)</t>
-  </si>
-  <si>
-    <t>1281.1 (±365.0)</t>
-  </si>
-  <si>
-    <t>1470.9 (±273.7)</t>
-  </si>
-  <si>
-    <t>1391.5 (±218.4)</t>
-  </si>
-  <si>
-    <t>1823.2 (±415.7)</t>
-  </si>
-  <si>
-    <t>1843.7 (±489.2)</t>
-  </si>
-  <si>
-    <t>1851.7 (±355.5)</t>
-  </si>
-  <si>
-    <t>1679.5 (±247.0)</t>
-  </si>
-  <si>
-    <t>1845.7 (±267.1)</t>
-  </si>
-  <si>
-    <t>1794.4 (±250.4)</t>
-  </si>
-  <si>
-    <t>626.5 (±135.3)</t>
-  </si>
-  <si>
-    <t>884.4 (±194.9)</t>
-  </si>
-  <si>
-    <t>727.7 (±131.1)</t>
-  </si>
-  <si>
-    <t>973.6 (±150.0)</t>
-  </si>
-  <si>
-    <t>1230.5 (±285.0)</t>
-  </si>
-  <si>
-    <t>1082.0 (±205.1)</t>
+    <t>41199.0 (±30283.1)</t>
+  </si>
+  <si>
+    <t>55509.6 (±29113.4)</t>
+  </si>
+  <si>
+    <t>94550.0 (±44430.5)</t>
+  </si>
+  <si>
+    <t>88005.3 (±32133.7)</t>
+  </si>
+  <si>
+    <t>100348.5 (±37658.5)</t>
+  </si>
+  <si>
+    <t>191078.2 (±55717.3)</t>
+  </si>
+  <si>
+    <t>105835.3 (±32469.8)</t>
+  </si>
+  <si>
+    <t>137115.7 (±34770.3)</t>
+  </si>
+  <si>
+    <t>250342.2 (±51203.6)</t>
+  </si>
+  <si>
+    <t>36083.5 (±23277.0)</t>
+  </si>
+  <si>
+    <t>38413.6 (±20371.1)</t>
+  </si>
+  <si>
+    <t>74703.1 (±34896.0)</t>
+  </si>
+  <si>
+    <t>2291.6 (±4733.7)</t>
+  </si>
+  <si>
+    <t>2518.3 (±5727.4)</t>
+  </si>
+  <si>
+    <t>3956.7 (±7537.7)</t>
+  </si>
+  <si>
+    <t>83653.7 (±37639.9)</t>
+  </si>
+  <si>
+    <t>103936.3 (±39260.3)</t>
+  </si>
+  <si>
+    <t>191209.4 (±55075.2)</t>
+  </si>
+  <si>
+    <t>8156.1 (±18088.5)</t>
+  </si>
+  <si>
+    <t>8542.9 (±18832.9)</t>
+  </si>
+  <si>
+    <t>14408.9 (±28095.2)</t>
+  </si>
+  <si>
+    <t>6265.6 (±10750.0)</t>
+  </si>
+  <si>
+    <t>7140.3 (±12199.7)</t>
+  </si>
+  <si>
+    <t>12102.9 (±18540.8)</t>
+  </si>
+  <si>
+    <t>8452.3 (±17562.7)</t>
+  </si>
+  <si>
+    <t>15277.3 (±19903.5)</t>
+  </si>
+  <si>
+    <t>20674.0 (±30169.0)</t>
+  </si>
+  <si>
+    <t>258944.2 (±94047.7)</t>
+  </si>
+  <si>
+    <t>354401.0 (±98166.6)</t>
+  </si>
+  <si>
+    <t>625673.9 (±168432.2)</t>
+  </si>
+  <si>
+    <t>37010.0 (±32882.9)</t>
+  </si>
+  <si>
+    <t>40560.9 (±32903.3)</t>
+  </si>
+  <si>
+    <t>75878.3 (±50485.6)</t>
+  </si>
+  <si>
+    <t>89067.9 (±40785.8)</t>
+  </si>
+  <si>
+    <t>84885.5 (±42046.9)</t>
+  </si>
+  <si>
+    <t>176650.1 (±69294.9)</t>
+  </si>
+  <si>
+    <t>1325.3 (±2637.5)</t>
+  </si>
+  <si>
+    <t>1674.8 (±3894.3)</t>
+  </si>
+  <si>
+    <t>2389.4 (±4878.6)</t>
+  </si>
+  <si>
+    <t>554530.7 (±105306.6)</t>
+  </si>
+  <si>
+    <t>691547.1 (±98771.1)</t>
+  </si>
+  <si>
+    <t>1270699.3 (±176594.3)</t>
+  </si>
+  <si>
+    <t>9899.5 (±12555.0)</t>
+  </si>
+  <si>
+    <t>9293.8 (±14873.0)</t>
+  </si>
+  <si>
+    <t>18781.6 (±21942.1)</t>
+  </si>
+  <si>
+    <t>39132.6 (±20998.4)</t>
+  </si>
+  <si>
+    <t>57739.8 (±24987.1)</t>
+  </si>
+  <si>
+    <t>101582.6 (±36458.5)</t>
+  </si>
+  <si>
+    <t>2432.8 (±4747.1)</t>
+  </si>
+  <si>
+    <t>3711.1 (±5298.0)</t>
+  </si>
+  <si>
+    <t>5612.8 (±8150.2)</t>
+  </si>
+  <si>
+    <t>2853.0 (±4678.4)</t>
+  </si>
+  <si>
+    <t>2718.8 (±4732.2)</t>
+  </si>
+  <si>
+    <t>5325.9 (±7548.0)</t>
+  </si>
+  <si>
+    <t>6102.2 (±7630.7)</t>
+  </si>
+  <si>
+    <t>6470.5 (±5131.5)</t>
+  </si>
+  <si>
+    <t>12099.1 (±9524.4)</t>
+  </si>
+  <si>
+    <t>69528.5 (±36606.7)</t>
+  </si>
+  <si>
+    <t>107475.5 (±39407.5)</t>
+  </si>
+  <si>
+    <t>179502.1 (±62788.0)</t>
+  </si>
+  <si>
+    <t>2661.6 (±10018.2)</t>
+  </si>
+  <si>
+    <t>4991.6 (±15143.2)</t>
+  </si>
+  <si>
+    <t>6039.2 (±19128.3)</t>
+  </si>
+  <si>
+    <t>353973.6 (±82547.7)</t>
+  </si>
+  <si>
+    <t>501914.5 (±89145.2)</t>
+  </si>
+  <si>
+    <t>894418.9 (±142882.9)</t>
+  </si>
+  <si>
+    <t>67502.6 (±34103.1)</t>
+  </si>
+  <si>
+    <t>65332.1 (±39883.3)</t>
+  </si>
+  <si>
+    <t>133424.0 (±61715.8)</t>
+  </si>
+  <si>
+    <t>219044.1 (±63753.8)</t>
+  </si>
+  <si>
+    <t>278885.8 (±72334.0)</t>
+  </si>
+  <si>
+    <t>510563.2 (±110499.8)</t>
+  </si>
+  <si>
+    <t>56036.4 (±31023.7)</t>
+  </si>
+  <si>
+    <t>102972.9 (±36871.4)</t>
+  </si>
+  <si>
+    <t>161022.3 (±56746.9)</t>
+  </si>
+  <si>
+    <t>40137.4 (±24688.8)</t>
+  </si>
+  <si>
+    <t>40171.1 (±29535.1)</t>
+  </si>
+  <si>
+    <t>81574.9 (±41972.5)</t>
+  </si>
+  <si>
+    <t>19109.5 (±10316.0)</t>
+  </si>
+  <si>
+    <t>19967.1 (±14903.1)</t>
+  </si>
+  <si>
+    <t>39318.3 (±18765.1)</t>
+  </si>
+  <si>
+    <t>406011.9 (±81275.7)</t>
+  </si>
+  <si>
+    <t>446479.0 (±85392.5)</t>
+  </si>
+  <si>
+    <t>869510.8 (±133940.4)</t>
+  </si>
+  <si>
+    <t>36836.0 (±23025.9)</t>
+  </si>
+  <si>
+    <t>64221.3 (±30695.0)</t>
+  </si>
+  <si>
+    <t>99901.7 (±44464.8)</t>
+  </si>
+  <si>
+    <t>35252.6 (±25280.8)</t>
+  </si>
+  <si>
+    <t>53852.5 (±31940.6)</t>
+  </si>
+  <si>
+    <t>88940.2 (±45938.2)</t>
+  </si>
+  <si>
+    <t>10.63 (±1.86)</t>
+  </si>
+  <si>
+    <t>12.11 (±1.2)</t>
+  </si>
+  <si>
+    <t>11.31 (±1.04)</t>
+  </si>
+  <si>
+    <t>9.2 (±1.03)</t>
+  </si>
+  <si>
+    <t>11.19 (±1.19)</t>
+  </si>
+  <si>
+    <t>10.32 (±0.86)</t>
+  </si>
+  <si>
+    <t>13.06 (±0.39)</t>
+  </si>
+  <si>
+    <t>12.43 (±0.49)</t>
+  </si>
+  <si>
+    <t>13.09 (±0.23)</t>
+  </si>
+  <si>
+    <t>11.22 (±1.48)</t>
+  </si>
+  <si>
+    <t>11.46 (±1.06)</t>
+  </si>
+  <si>
+    <t>11.45 (±1.15)</t>
+  </si>
+  <si>
+    <t>22.16 (±0.62)</t>
+  </si>
+  <si>
+    <t>18.29 (±1.07)</t>
+  </si>
+  <si>
+    <t>18.5 (±0.47)</t>
+  </si>
+  <si>
+    <t>10.66 (±1.24)</t>
+  </si>
+  <si>
+    <t>11.34 (±1.1)</t>
+  </si>
+  <si>
+    <t>11.26 (±0.65)</t>
+  </si>
+  <si>
+    <t>19.38 (±0.59)</t>
+  </si>
+  <si>
+    <t>13.0 (±2.76)</t>
+  </si>
+  <si>
+    <t>14.8 (±3.08)</t>
+  </si>
+  <si>
+    <t>18.63 (±0.7)</t>
+  </si>
+  <si>
+    <t>20.97 (±0.16)</t>
+  </si>
+  <si>
+    <t>18.99 (±1.87)</t>
+  </si>
+  <si>
+    <t>11.99 (±1.65)</t>
+  </si>
+  <si>
+    <t>20.5 (±1.18)</t>
+  </si>
+  <si>
+    <t>15.56 (±0.48)</t>
+  </si>
+  <si>
+    <t>9.69 (±0.78)</t>
+  </si>
+  <si>
+    <t>11.55 (±0.67)</t>
+  </si>
+  <si>
+    <t>10.92 (±0.56)</t>
+  </si>
+  <si>
+    <t>12.27 (±0.79)</t>
+  </si>
+  <si>
+    <t>13.56 (±0.63)</t>
+  </si>
+  <si>
+    <t>12.72 (±0.35)</t>
+  </si>
+  <si>
+    <t>12.07 (±0.93)</t>
+  </si>
+  <si>
+    <t>12.59 (±1.17)</t>
+  </si>
+  <si>
+    <t>12.53 (±0.92)</t>
+  </si>
+  <si>
+    <t>34.88 (±5.68)</t>
+  </si>
+  <si>
+    <t>28.2 (±3.17)</t>
+  </si>
+  <si>
+    <t>37.75 (±3.64)</t>
+  </si>
+  <si>
+    <t>9.84 (±0.28)</t>
+  </si>
+  <si>
+    <t>11.54 (±0.27)</t>
+  </si>
+  <si>
+    <t>10.94 (±0.15)</t>
+  </si>
+  <si>
+    <t>11.75 (±1.56)</t>
+  </si>
+  <si>
+    <t>14.83 (±1.77)</t>
+  </si>
+  <si>
+    <t>13.37 (±1.68)</t>
+  </si>
+  <si>
+    <t>12.23 (±1.29)</t>
+  </si>
+  <si>
+    <t>15.02 (±0.94)</t>
+  </si>
+  <si>
+    <t>14.48 (±0.9)</t>
+  </si>
+  <si>
+    <t>15.41 (±2.08)</t>
+  </si>
+  <si>
+    <t>16.75 (±0.29)</t>
+  </si>
+  <si>
+    <t>15.83 (±0.83)</t>
+  </si>
+  <si>
+    <t>11.73 (±2.56)</t>
+  </si>
+  <si>
+    <t>16.08 (±1.12)</t>
+  </si>
+  <si>
+    <t>13.28 (±2.44)</t>
+  </si>
+  <si>
+    <t>14.4 (±1.03)</t>
+  </si>
+  <si>
+    <t>10.71 (±0.49)</t>
+  </si>
+  <si>
+    <t>11.96 (±1.15)</t>
+  </si>
+  <si>
+    <t>10.34 (±1.07)</t>
+  </si>
+  <si>
+    <t>11.44 (±1.06)</t>
+  </si>
+  <si>
+    <t>11.14 (±0.91)</t>
+  </si>
+  <si>
+    <t>20.1 (±3.44)</t>
+  </si>
+  <si>
+    <t>17.73 (±3.62)</t>
+  </si>
+  <si>
+    <t>17.13 (±4.9)</t>
+  </si>
+  <si>
+    <t>11.56 (±0.61)</t>
+  </si>
+  <si>
+    <t>12.53 (±0.52)</t>
+  </si>
+  <si>
+    <t>12.66 (±0.37)</t>
+  </si>
+  <si>
+    <t>10.19 (±1.19)</t>
+  </si>
+  <si>
+    <t>12.18 (±1.35)</t>
+  </si>
+  <si>
+    <t>11.17 (±1.11)</t>
+  </si>
+  <si>
+    <t>12.84 (±0.6)</t>
+  </si>
+  <si>
+    <t>11.88 (±0.77)</t>
+  </si>
+  <si>
+    <t>12.61 (±0.48)</t>
+  </si>
+  <si>
+    <t>12.5 (±0.3)</t>
+  </si>
+  <si>
+    <t>13.26 (±0.65)</t>
+  </si>
+  <si>
+    <t>13.2 (±0.41)</t>
+  </si>
+  <si>
+    <t>12.6 (±1.46)</t>
+  </si>
+  <si>
+    <t>11.87 (±2.18)</t>
+  </si>
+  <si>
+    <t>12.46 (±1.52)</t>
+  </si>
+  <si>
+    <t>9.68 (±1.58)</t>
+  </si>
+  <si>
+    <t>11.98 (±1.91)</t>
+  </si>
+  <si>
+    <t>10.86 (±1.48)</t>
+  </si>
+  <si>
+    <t>10.63 (±0.53)</t>
+  </si>
+  <si>
+    <t>11.78 (±0.56)</t>
+  </si>
+  <si>
+    <t>11.43 (±0.35)</t>
+  </si>
+  <si>
+    <t>8.93 (±1.56)</t>
+  </si>
+  <si>
+    <t>11.81 (±1.27)</t>
+  </si>
+  <si>
+    <t>10.54 (±1.25)</t>
+  </si>
+  <si>
+    <t>8.62 (±2.28)</t>
+  </si>
+  <si>
+    <t>10.71 (±2.23)</t>
+  </si>
+  <si>
+    <t>9.8 (±1.92)</t>
+  </si>
+  <si>
+    <t>910.9 (±669.5)</t>
+  </si>
+  <si>
+    <t>1268.0 (±665.0)</t>
+  </si>
+  <si>
+    <t>1062.3 (±499.2)</t>
+  </si>
+  <si>
+    <t>1507.6 (±550.5)</t>
+  </si>
+  <si>
+    <t>1767.5 (±663.3)</t>
+  </si>
+  <si>
+    <t>1659.4 (±483.9)</t>
+  </si>
+  <si>
+    <t>2958.0 (±907.5)</t>
+  </si>
+  <si>
+    <t>4070.7 (±1032.3)</t>
+  </si>
+  <si>
+    <t>3603.9 (±737.1)</t>
+  </si>
+  <si>
+    <t>1731.3 (±1116.9)</t>
+  </si>
+  <si>
+    <t>1949.9 (±1034.0)</t>
+  </si>
+  <si>
+    <t>1842.6 (±860.7)</t>
+  </si>
+  <si>
+    <t>515.0 (±1063.9)</t>
+  </si>
+  <si>
+    <t>587.3 (±1335.6)</t>
+  </si>
+  <si>
+    <t>452.8 (±862.7)</t>
+  </si>
+  <si>
+    <t>1543.3 (±694.4)</t>
+  </si>
+  <si>
+    <t>1972.0 (±744.9)</t>
+  </si>
+  <si>
+    <t>1788.5 (±515.2)</t>
+  </si>
+  <si>
+    <t>271.4 (±602.0)</t>
+  </si>
+  <si>
+    <t>290.7 (±640.9)</t>
+  </si>
+  <si>
+    <t>242.4 (±472.7)</t>
+  </si>
+  <si>
+    <t>896.2 (±1537.6)</t>
+  </si>
+  <si>
+    <t>1135.0 (±1939.3)</t>
+  </si>
+  <si>
+    <t>911.2 (±1395.9)</t>
+  </si>
+  <si>
+    <t>302.4 (±628.3)</t>
+  </si>
+  <si>
+    <t>560.3 (±730.0)</t>
+  </si>
+  <si>
+    <t>374.4 (±546.4)</t>
+  </si>
+  <si>
+    <t>745.3 (±270.7)</t>
+  </si>
+  <si>
+    <t>1090.4 (±302.0)</t>
+  </si>
+  <si>
+    <t>930.5 (±250.5)</t>
+  </si>
+  <si>
+    <t>673.3 (±598.2)</t>
+  </si>
+  <si>
+    <t>778.5 (±631.5)</t>
+  </si>
+  <si>
+    <t>708.7 (±471.5)</t>
+  </si>
+  <si>
+    <t>1751.2 (±801.9)</t>
+  </si>
+  <si>
+    <t>1814.1 (±898.6)</t>
+  </si>
+  <si>
+    <t>1809.0 (±709.6)</t>
+  </si>
+  <si>
+    <t>748.2 (±1489.1)</t>
+  </si>
+  <si>
+    <t>896.1 (±2083.7)</t>
+  </si>
+  <si>
+    <t>656.4 (±1340.2)</t>
+  </si>
+  <si>
+    <t>1903.8 (±361.5)</t>
+  </si>
+  <si>
+    <t>2441.4 (±348.7)</t>
+  </si>
+  <si>
+    <t>2130.6 (±296.1)</t>
+  </si>
+  <si>
+    <t>964.3 (±1223.0)</t>
+  </si>
+  <si>
+    <t>1055.1 (±1688.4)</t>
+  </si>
+  <si>
+    <t>984.6 (±1150.3)</t>
+  </si>
+  <si>
+    <t>2629.4 (±1410.9)</t>
+  </si>
+  <si>
+    <t>4428.4 (±1916.4)</t>
+  </si>
+  <si>
+    <t>3638.2 (±1305.8)</t>
+  </si>
+  <si>
+    <t>782.4 (±1526.7)</t>
+  </si>
+  <si>
+    <t>1178.7 (±1682.7)</t>
+  </si>
+  <si>
+    <t>896.9 (±1302.4)</t>
+  </si>
+  <si>
+    <t>1148.1 (±1882.7)</t>
+  </si>
+  <si>
+    <t>1023.8 (±1782.1)</t>
+  </si>
+  <si>
+    <t>1036.1 (±1468.4)</t>
+  </si>
+  <si>
+    <t>1942.1 (±2428.5)</t>
+  </si>
+  <si>
+    <t>2105.3 (±1669.6)</t>
+  </si>
+  <si>
+    <t>1946.6 (±1532.4)</t>
+  </si>
+  <si>
+    <t>794.1 (±418.1)</t>
+  </si>
+  <si>
+    <t>1243.5 (±456.0)</t>
+  </si>
+  <si>
+    <t>1031.7 (±360.9)</t>
+  </si>
+  <si>
+    <t>100.0 (±376.4)</t>
+  </si>
+  <si>
+    <t>184.5 (±559.6)</t>
+  </si>
+  <si>
+    <t>112.5 (±356.4)</t>
+  </si>
+  <si>
+    <t>1808.7 (±421.8)</t>
+  </si>
+  <si>
+    <t>2732.9 (±485.4)</t>
+  </si>
+  <si>
+    <t>2357.7 (±376.6)</t>
+  </si>
+  <si>
+    <t>1243.5 (±628.2)</t>
+  </si>
+  <si>
+    <t>1345.6 (±821.5)</t>
+  </si>
+  <si>
+    <t>1297.4 (±600.1)</t>
+  </si>
+  <si>
+    <t>2222.1 (±646.8)</t>
+  </si>
+  <si>
+    <t>2949.6 (±765.0)</t>
+  </si>
+  <si>
+    <t>2643.7 (±572.2)</t>
+  </si>
+  <si>
+    <t>1579.2 (±874.3)</t>
+  </si>
+  <si>
+    <t>3054.0 (±1093.5)</t>
+  </si>
+  <si>
+    <t>2326.9 (±820.0)</t>
+  </si>
+  <si>
+    <t>1438.1 (±884.6)</t>
+  </si>
+  <si>
+    <t>1507.7 (±1108.5)</t>
+  </si>
+  <si>
+    <t>1495.3 (±769.4)</t>
+  </si>
+  <si>
+    <t>1830.7 (±988.3)</t>
+  </si>
+  <si>
+    <t>1901.3 (±1419.1)</t>
+  </si>
+  <si>
+    <t>1877.7 (±896.1)</t>
+  </si>
+  <si>
+    <t>1684.4 (±337.2)</t>
+  </si>
+  <si>
+    <t>1926.2 (±368.4)</t>
+  </si>
+  <si>
+    <t>1838.9 (±283.3)</t>
+  </si>
+  <si>
+    <t>717.9 (±448.8)</t>
+  </si>
+  <si>
+    <t>1236.5 (±591.0)</t>
+  </si>
+  <si>
+    <t>967.6 (±430.7)</t>
+  </si>
+  <si>
+    <t>842.0 (±603.8)</t>
+  </si>
+  <si>
+    <t>1285.2 (±762.3)</t>
+  </si>
+  <si>
+    <t>1061.7 (±548.4)</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1322,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1479,43 +1377,43 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C2">
-        <v>1969.8</v>
+        <v>3876.4</v>
       </c>
       <c r="D2">
-        <v>325.4</v>
+        <v>1847.5</v>
       </c>
       <c r="E2">
-        <v>17268.3</v>
+        <v>41199</v>
       </c>
       <c r="F2">
-        <v>4514.5</v>
+        <v>30283.1</v>
       </c>
       <c r="G2">
-        <v>8.77</v>
+        <v>10.63</v>
       </c>
       <c r="H2">
-        <v>0.72</v>
+        <v>1.86</v>
       </c>
       <c r="I2">
-        <v>1411583</v>
+        <v>4523048</v>
       </c>
       <c r="J2">
-        <v>1223.3</v>
+        <v>910.9</v>
       </c>
       <c r="K2">
-        <v>319.8</v>
+        <v>669.5</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="N2" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1523,43 +1421,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C3">
-        <v>4052.400000000001</v>
+        <v>4585.6</v>
       </c>
       <c r="D3">
-        <v>369.8000000000001</v>
+        <v>1773.1</v>
       </c>
       <c r="E3">
-        <v>43782</v>
+        <v>55509.6</v>
       </c>
       <c r="F3">
-        <v>5674.5</v>
+        <v>29113.4</v>
       </c>
       <c r="G3">
-        <v>10.8</v>
+        <v>12.11</v>
       </c>
       <c r="H3">
-        <v>0.38</v>
+        <v>1.2</v>
       </c>
       <c r="I3">
-        <v>1408097</v>
+        <v>4377629</v>
       </c>
       <c r="J3">
-        <v>3109.3</v>
+        <v>1268</v>
       </c>
       <c r="K3">
-        <v>403</v>
+        <v>665</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="N3" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1567,43 +1465,43 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C4">
-        <v>6020.8</v>
+        <v>8362.4</v>
       </c>
       <c r="D4">
-        <v>560.6999999999999</v>
+        <v>2889.4</v>
       </c>
       <c r="E4">
-        <v>60883.39999999999</v>
+        <v>94550</v>
       </c>
       <c r="F4">
-        <v>8661.700000000001</v>
+        <v>44430.5</v>
       </c>
       <c r="G4">
-        <v>10.11</v>
+        <v>11.31</v>
       </c>
       <c r="H4">
-        <v>0.46</v>
+        <v>1.04</v>
       </c>
       <c r="I4">
-        <v>2819680</v>
+        <v>8900677</v>
       </c>
       <c r="J4">
-        <v>2159.2</v>
+        <v>1062.3</v>
       </c>
       <c r="K4">
-        <v>307.2</v>
+        <v>499.2</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M4" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="N4" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1611,43 +1509,43 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C5">
-        <v>3285.8</v>
+        <v>9561</v>
       </c>
       <c r="D5">
-        <v>493.3</v>
+        <v>2185.3</v>
       </c>
       <c r="E5">
-        <v>41300.4</v>
+        <v>88005.3</v>
       </c>
       <c r="F5">
-        <v>6812.600000000001</v>
+        <v>32133.7</v>
       </c>
       <c r="G5">
-        <v>12.57</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H5">
-        <v>0.16</v>
+        <v>1.03</v>
       </c>
       <c r="I5">
-        <v>1544247</v>
+        <v>5837584</v>
       </c>
       <c r="J5">
-        <v>2674.5</v>
+        <v>1507.6</v>
       </c>
       <c r="K5">
-        <v>441.2</v>
+        <v>550.5</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="N5" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1655,43 +1553,43 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C6">
-        <v>5758.8</v>
+        <v>8967.5</v>
       </c>
       <c r="D6">
-        <v>508</v>
+        <v>2182.6</v>
       </c>
       <c r="E6">
-        <v>145794</v>
+        <v>100348.5</v>
       </c>
       <c r="F6">
-        <v>9166.6</v>
+        <v>37658.5</v>
       </c>
       <c r="G6">
-        <v>25.32</v>
+        <v>11.19</v>
       </c>
       <c r="H6">
-        <v>0.59</v>
+        <v>1.19</v>
       </c>
       <c r="I6">
-        <v>1385703</v>
+        <v>5677327</v>
       </c>
       <c r="J6">
-        <v>10521.3</v>
+        <v>1767.5</v>
       </c>
       <c r="K6">
-        <v>661.5</v>
+        <v>663.3</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="N6" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1699,43 +1597,43 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7">
-        <v>9015.800000000001</v>
+        <v>18513</v>
       </c>
       <c r="D7">
-        <v>932.3000000000001</v>
+        <v>3557.6</v>
       </c>
       <c r="E7">
-        <v>194220.1</v>
+        <v>191078.2</v>
       </c>
       <c r="F7">
-        <v>14925.3</v>
+        <v>55717.3</v>
       </c>
       <c r="G7">
-        <v>21.54</v>
+        <v>10.32</v>
       </c>
       <c r="H7">
-        <v>0.52</v>
+        <v>0.86</v>
       </c>
       <c r="I7">
-        <v>2929950</v>
+        <v>11514911</v>
       </c>
       <c r="J7">
-        <v>6628.8</v>
+        <v>1659.4</v>
       </c>
       <c r="K7">
-        <v>509.4</v>
+        <v>483.9</v>
       </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M7" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="N7" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1743,43 +1641,43 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8">
-        <v>4137.6</v>
+        <v>8104</v>
       </c>
       <c r="D8">
-        <v>1067.3</v>
+        <v>2177.9</v>
       </c>
       <c r="E8">
-        <v>41987.6</v>
+        <v>105835.3</v>
       </c>
       <c r="F8">
-        <v>12270.2</v>
+        <v>32469.8</v>
       </c>
       <c r="G8">
-        <v>10.15</v>
+        <v>13.06</v>
       </c>
       <c r="H8">
-        <v>0.27</v>
+        <v>0.39</v>
       </c>
       <c r="I8">
-        <v>4523048</v>
+        <v>3577957</v>
       </c>
       <c r="J8">
-        <v>928.3</v>
+        <v>2958</v>
       </c>
       <c r="K8">
-        <v>271.3</v>
+        <v>907.5</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M8" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="N8" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1787,43 +1685,43 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9">
-        <v>5703</v>
+        <v>11035.3</v>
       </c>
       <c r="D9">
-        <v>1225.4</v>
+        <v>2270.6</v>
       </c>
       <c r="E9">
-        <v>58688.7</v>
+        <v>137115.7</v>
       </c>
       <c r="F9">
-        <v>16009.5</v>
+        <v>34770.3</v>
       </c>
       <c r="G9">
-        <v>10.29</v>
+        <v>12.43</v>
       </c>
       <c r="H9">
         <v>0.49</v>
       </c>
       <c r="I9">
-        <v>4377629</v>
+        <v>3368389</v>
       </c>
       <c r="J9">
-        <v>1340.7</v>
+        <v>4070.7</v>
       </c>
       <c r="K9">
-        <v>365.7</v>
+        <v>1032.3</v>
       </c>
       <c r="L9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M9" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="N9" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1831,43 +1729,43 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C10">
-        <v>9771.4</v>
+        <v>19124.6</v>
       </c>
       <c r="D10">
-        <v>2146</v>
+        <v>3514.5</v>
       </c>
       <c r="E10">
-        <v>99692.39999999999</v>
+        <v>250342.2</v>
       </c>
       <c r="F10">
-        <v>25475.7</v>
+        <v>51203.6</v>
       </c>
       <c r="G10">
-        <v>10.2</v>
+        <v>13.09</v>
       </c>
       <c r="H10">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="I10">
-        <v>8900677</v>
+        <v>6946346</v>
       </c>
       <c r="J10">
-        <v>1120.1</v>
+        <v>3603.9</v>
       </c>
       <c r="K10">
-        <v>286.2</v>
+        <v>737.1</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M10" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1875,43 +1773,43 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11">
-        <v>9928</v>
+        <v>3214.7</v>
       </c>
       <c r="D11">
-        <v>1513.2</v>
+        <v>1458.2</v>
       </c>
       <c r="E11">
-        <v>85342.10000000001</v>
+        <v>36083.5</v>
       </c>
       <c r="F11">
-        <v>17899.1</v>
+        <v>23277</v>
       </c>
       <c r="G11">
-        <v>8.6</v>
+        <v>11.22</v>
       </c>
       <c r="H11">
-        <v>0.42</v>
+        <v>1.48</v>
       </c>
       <c r="I11">
-        <v>5837584</v>
+        <v>2084134</v>
       </c>
       <c r="J11">
-        <v>1461.9</v>
+        <v>1731.3</v>
       </c>
       <c r="K11">
-        <v>306.6</v>
+        <v>1116.9</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M11" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="N11" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1919,43 +1817,43 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C12">
-        <v>9220.599999999999</v>
+        <v>3352.5</v>
       </c>
       <c r="D12">
-        <v>1531.4</v>
+        <v>1343.1</v>
       </c>
       <c r="E12">
-        <v>86095.70000000001</v>
+        <v>38413.6</v>
       </c>
       <c r="F12">
-        <v>19824.8</v>
+        <v>20371.1</v>
       </c>
       <c r="G12">
-        <v>9.34</v>
+        <v>11.46</v>
       </c>
       <c r="H12">
-        <v>0.51</v>
+        <v>1.06</v>
       </c>
       <c r="I12">
-        <v>5677327</v>
+        <v>1970079</v>
       </c>
       <c r="J12">
-        <v>1516.5</v>
+        <v>1949.9</v>
       </c>
       <c r="K12">
-        <v>349.2</v>
+        <v>1034</v>
       </c>
       <c r="L12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M12" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="N12" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1963,43 +1861,43 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C13">
-        <v>19108.4</v>
+        <v>6525.3</v>
       </c>
       <c r="D13">
-        <v>2802.3</v>
+        <v>2172.2</v>
       </c>
       <c r="E13">
-        <v>172732.5</v>
+        <v>74703.10000000001</v>
       </c>
       <c r="F13">
-        <v>35578.3</v>
+        <v>34896</v>
       </c>
       <c r="G13">
-        <v>9.039999999999999</v>
+        <v>11.45</v>
       </c>
       <c r="H13">
-        <v>0.47</v>
+        <v>1.15</v>
       </c>
       <c r="I13">
-        <v>11514911</v>
+        <v>4054213</v>
       </c>
       <c r="J13">
-        <v>1500.1</v>
+        <v>1842.6</v>
       </c>
       <c r="K13">
-        <v>309</v>
+        <v>860.7</v>
       </c>
       <c r="L13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M13" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="N13" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2007,43 +1905,43 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14">
-        <v>7308.4</v>
+        <v>103.4</v>
       </c>
       <c r="D14">
-        <v>1336.9</v>
+        <v>205</v>
       </c>
       <c r="E14">
-        <v>91966.89999999999</v>
+        <v>2291.6</v>
       </c>
       <c r="F14">
-        <v>15182.6</v>
+        <v>4733.7</v>
       </c>
       <c r="G14">
-        <v>12.58</v>
+        <v>22.16</v>
       </c>
       <c r="H14">
-        <v>0.19</v>
+        <v>0.62</v>
       </c>
       <c r="I14">
-        <v>3577957</v>
+        <v>444955</v>
       </c>
       <c r="J14">
-        <v>2570.4</v>
+        <v>515</v>
       </c>
       <c r="K14">
-        <v>424.3</v>
+        <v>1063.9</v>
       </c>
       <c r="L14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M14" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="N14" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2051,43 +1949,43 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C15">
-        <v>10293.2</v>
+        <v>137.7</v>
       </c>
       <c r="D15">
-        <v>1379.5</v>
+        <v>288.3</v>
       </c>
       <c r="E15">
-        <v>123801.1</v>
+        <v>2518.3</v>
       </c>
       <c r="F15">
-        <v>17131.1</v>
+        <v>5727.4</v>
       </c>
       <c r="G15">
-        <v>12.03</v>
+        <v>18.29</v>
       </c>
       <c r="H15">
-        <v>0.04</v>
+        <v>1.07</v>
       </c>
       <c r="I15">
-        <v>3368389</v>
+        <v>428827</v>
       </c>
       <c r="J15">
-        <v>3675.4</v>
+        <v>587.3</v>
       </c>
       <c r="K15">
-        <v>508.6</v>
+        <v>1335.6</v>
       </c>
       <c r="L15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M15" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="N15" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2095,43 +1993,43 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C16">
-        <v>17593.2</v>
+        <v>213.9</v>
       </c>
       <c r="D16">
-        <v>2603.6</v>
+        <v>392.1</v>
       </c>
       <c r="E16">
-        <v>223111.5</v>
+        <v>3956.7</v>
       </c>
       <c r="F16">
-        <v>31278.6</v>
+        <v>7537.700000000001</v>
       </c>
       <c r="G16">
-        <v>12.68</v>
+        <v>18.5</v>
       </c>
       <c r="H16">
-        <v>0.08</v>
+        <v>0.47</v>
       </c>
       <c r="I16">
-        <v>6946346</v>
+        <v>873782</v>
       </c>
       <c r="J16">
-        <v>3211.9</v>
+        <v>452.8</v>
       </c>
       <c r="K16">
-        <v>450.3</v>
+        <v>862.7</v>
       </c>
       <c r="L16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M16" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="N16" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2139,43 +2037,43 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C17">
-        <v>2745.2</v>
+        <v>7844.299999999999</v>
       </c>
       <c r="D17">
-        <v>773.3</v>
+        <v>2351.9</v>
       </c>
       <c r="E17">
-        <v>25538.9</v>
+        <v>83653.7</v>
       </c>
       <c r="F17">
-        <v>9225.899999999998</v>
+        <v>37639.9</v>
       </c>
       <c r="G17">
-        <v>9.300000000000001</v>
+        <v>10.66</v>
       </c>
       <c r="H17">
-        <v>0.58</v>
+        <v>1.24</v>
       </c>
       <c r="I17">
-        <v>2084134</v>
+        <v>5420337</v>
       </c>
       <c r="J17">
-        <v>1225.4</v>
+        <v>1543.3</v>
       </c>
       <c r="K17">
-        <v>442.7</v>
+        <v>694.4</v>
       </c>
       <c r="L17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M17" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="N17" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2183,43 +2081,43 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C18">
-        <v>2980.4</v>
+        <v>9168.6</v>
       </c>
       <c r="D18">
-        <v>673.9000000000001</v>
+        <v>2340.6</v>
       </c>
       <c r="E18">
-        <v>28616.6</v>
+        <v>103936.3</v>
       </c>
       <c r="F18">
-        <v>7532.6</v>
+        <v>39260.3</v>
       </c>
       <c r="G18">
-        <v>9.6</v>
+        <v>11.34</v>
       </c>
       <c r="H18">
-        <v>0.29</v>
+        <v>1.1</v>
       </c>
       <c r="I18">
-        <v>1970079</v>
+        <v>5270736</v>
       </c>
       <c r="J18">
-        <v>1452.6</v>
+        <v>1972</v>
       </c>
       <c r="K18">
-        <v>382.4</v>
+        <v>744.9</v>
       </c>
       <c r="L18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M18" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="N18" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2227,43 +2125,43 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C19">
-        <v>5708.799999999999</v>
+        <v>16980.9</v>
       </c>
       <c r="D19">
-        <v>1343.7</v>
+        <v>3696.2</v>
       </c>
       <c r="E19">
-        <v>55476.5</v>
+        <v>191209.4</v>
       </c>
       <c r="F19">
-        <v>15053.8</v>
+        <v>55075.2</v>
       </c>
       <c r="G19">
-        <v>9.720000000000001</v>
+        <v>11.26</v>
       </c>
       <c r="H19">
-        <v>0.28</v>
+        <v>0.65</v>
       </c>
       <c r="I19">
-        <v>4054213</v>
+        <v>10691073</v>
       </c>
       <c r="J19">
-        <v>1368.4</v>
+        <v>1788.5</v>
       </c>
       <c r="K19">
-        <v>371.3</v>
+        <v>515.2</v>
       </c>
       <c r="L19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M19" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="N19" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2271,43 +2169,43 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>251.4</v>
+        <v>420.9</v>
       </c>
       <c r="D20">
-        <v>100.4</v>
+        <v>893.1999999999999</v>
       </c>
       <c r="E20">
-        <v>3057.3</v>
+        <v>8156.099999999999</v>
       </c>
       <c r="F20">
-        <v>1524.1</v>
+        <v>18088.5</v>
       </c>
       <c r="G20">
-        <v>12.16</v>
+        <v>19.38</v>
       </c>
       <c r="H20">
-        <v>0.86</v>
+        <v>0.59</v>
       </c>
       <c r="I20">
-        <v>444955</v>
+        <v>3004753</v>
       </c>
       <c r="J20">
-        <v>687.1</v>
+        <v>271.4</v>
       </c>
       <c r="K20">
-        <v>342.5</v>
+        <v>602</v>
       </c>
       <c r="L20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M20" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="N20" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2315,43 +2213,43 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>344.6</v>
+        <v>656.9</v>
       </c>
       <c r="D21">
-        <v>160.9</v>
+        <v>1079.9</v>
       </c>
       <c r="E21">
-        <v>4886.299999999999</v>
+        <v>8542.9</v>
       </c>
       <c r="F21">
-        <v>2566.2</v>
+        <v>18832.9</v>
       </c>
       <c r="G21">
-        <v>14.18</v>
+        <v>13</v>
       </c>
       <c r="H21">
-        <v>0.5600000000000001</v>
+        <v>2.76</v>
       </c>
       <c r="I21">
-        <v>428827</v>
+        <v>2938314</v>
       </c>
       <c r="J21">
-        <v>1139.5</v>
+        <v>290.7</v>
       </c>
       <c r="K21">
-        <v>598.4</v>
+        <v>640.9</v>
       </c>
       <c r="L21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M21" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="N21" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2359,43 +2257,43 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C22">
-        <v>584.8</v>
+        <v>973.7</v>
       </c>
       <c r="D22">
-        <v>213.9</v>
+        <v>1403.1</v>
       </c>
       <c r="E22">
-        <v>7592.599999999999</v>
+        <v>14408.9</v>
       </c>
       <c r="F22">
-        <v>3141.5</v>
+        <v>28095.2</v>
       </c>
       <c r="G22">
-        <v>12.98</v>
+        <v>14.8</v>
       </c>
       <c r="H22">
-        <v>0.46</v>
+        <v>3.08</v>
       </c>
       <c r="I22">
-        <v>873782</v>
+        <v>5943067</v>
       </c>
       <c r="J22">
-        <v>868.9</v>
+        <v>242.4</v>
       </c>
       <c r="K22">
-        <v>359.5</v>
+        <v>472.7</v>
       </c>
       <c r="L22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M22" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="N22" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2403,43 +2301,43 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C23">
-        <v>8915</v>
+        <v>336.3</v>
       </c>
       <c r="D23">
-        <v>1801.8</v>
+        <v>612.6</v>
       </c>
       <c r="E23">
-        <v>89020.7</v>
+        <v>6265.6</v>
       </c>
       <c r="F23">
-        <v>20939.2</v>
+        <v>10750</v>
       </c>
       <c r="G23">
-        <v>9.99</v>
+        <v>18.63</v>
       </c>
       <c r="H23">
-        <v>0.27</v>
+        <v>0.7</v>
       </c>
       <c r="I23">
-        <v>5420337</v>
+        <v>699139</v>
       </c>
       <c r="J23">
-        <v>1642.3</v>
+        <v>896.2</v>
       </c>
       <c r="K23">
-        <v>386.3</v>
+        <v>1537.6</v>
       </c>
       <c r="L23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M23" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="N23" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2447,43 +2345,43 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C24">
-        <v>10774.2</v>
+        <v>340.5</v>
       </c>
       <c r="D24">
-        <v>1618.1</v>
+        <v>588.9</v>
       </c>
       <c r="E24">
-        <v>109617.4</v>
+        <v>7140.3</v>
       </c>
       <c r="F24">
-        <v>21833.4</v>
+        <v>12199.7</v>
       </c>
       <c r="G24">
-        <v>10.17</v>
+        <v>20.97</v>
       </c>
       <c r="H24">
-        <v>0.44</v>
+        <v>0.16</v>
       </c>
       <c r="I24">
-        <v>5270736</v>
+        <v>629076</v>
       </c>
       <c r="J24">
-        <v>2079.7</v>
+        <v>1135</v>
       </c>
       <c r="K24">
-        <v>414.2</v>
+        <v>1939.3</v>
       </c>
       <c r="L24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M24" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="N24" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2491,43 +2389,43 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C25">
-        <v>19679.8</v>
+        <v>637.2</v>
       </c>
       <c r="D25">
-        <v>3265.6</v>
+        <v>831.6999999999999</v>
       </c>
       <c r="E25">
-        <v>204422.8</v>
+        <v>12102.9</v>
       </c>
       <c r="F25">
-        <v>40826.99999999999</v>
+        <v>18540.8</v>
       </c>
       <c r="G25">
-        <v>10.39</v>
+        <v>18.99</v>
       </c>
       <c r="H25">
-        <v>0.3</v>
+        <v>1.87</v>
       </c>
       <c r="I25">
-        <v>10691073</v>
+        <v>1328215</v>
       </c>
       <c r="J25">
-        <v>1912.1</v>
+        <v>911.2</v>
       </c>
       <c r="K25">
-        <v>381.9</v>
+        <v>1395.9</v>
       </c>
       <c r="L25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M25" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="N25" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2535,43 +2433,43 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C26">
-        <v>765.8</v>
+        <v>705.1</v>
       </c>
       <c r="D26">
-        <v>264.7</v>
+        <v>1202.3</v>
       </c>
       <c r="E26">
-        <v>9050.9</v>
+        <v>8452.299999999999</v>
       </c>
       <c r="F26">
-        <v>3475.5</v>
+        <v>17562.7</v>
       </c>
       <c r="G26">
-        <v>11.82</v>
+        <v>11.99</v>
       </c>
       <c r="H26">
-        <v>0.34</v>
+        <v>1.65</v>
       </c>
       <c r="I26">
-        <v>3004753</v>
+        <v>2795414</v>
       </c>
       <c r="J26">
-        <v>301.2</v>
+        <v>302.4</v>
       </c>
       <c r="K26">
-        <v>115.7</v>
+        <v>628.3</v>
       </c>
       <c r="L26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M26" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="N26" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2579,43 +2477,43 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C27">
-        <v>1640.8</v>
+        <v>745.4</v>
       </c>
       <c r="D27">
-        <v>542.4</v>
+        <v>1075.5</v>
       </c>
       <c r="E27">
-        <v>14493.6</v>
+        <v>15277.3</v>
       </c>
       <c r="F27">
-        <v>5296.100000000001</v>
+        <v>19903.5</v>
       </c>
       <c r="G27">
-        <v>8.83</v>
+        <v>20.5</v>
       </c>
       <c r="H27">
-        <v>0.23</v>
+        <v>1.18</v>
       </c>
       <c r="I27">
-        <v>2938314</v>
+        <v>2726489</v>
       </c>
       <c r="J27">
-        <v>493.3</v>
+        <v>560.3</v>
       </c>
       <c r="K27">
-        <v>180.2</v>
+        <v>730</v>
       </c>
       <c r="L27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M27" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="N27" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2623,43 +2521,43 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C28">
-        <v>2390.4</v>
+        <v>1328.8</v>
       </c>
       <c r="D28">
-        <v>817.1</v>
+        <v>1840.3</v>
       </c>
       <c r="E28">
-        <v>23533.5</v>
+        <v>20674</v>
       </c>
       <c r="F28">
-        <v>9830.5</v>
+        <v>30169</v>
       </c>
       <c r="G28">
-        <v>9.85</v>
+        <v>15.56</v>
       </c>
       <c r="H28">
-        <v>0.55</v>
+        <v>0.48</v>
       </c>
       <c r="I28">
-        <v>5943067</v>
+        <v>5521903</v>
       </c>
       <c r="J28">
-        <v>396</v>
+        <v>374.4</v>
       </c>
       <c r="K28">
-        <v>165.4</v>
+        <v>546.4</v>
       </c>
       <c r="L28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M28" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="N28" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2667,43 +2565,43 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C29">
-        <v>654.2</v>
+        <v>26730.9</v>
       </c>
       <c r="D29">
-        <v>227.3</v>
+        <v>6980.1</v>
       </c>
       <c r="E29">
-        <v>7790.8</v>
+        <v>258944.2</v>
       </c>
       <c r="F29">
-        <v>3571.6</v>
+        <v>94047.7</v>
       </c>
       <c r="G29">
-        <v>11.91</v>
+        <v>9.69</v>
       </c>
       <c r="H29">
-        <v>0.98</v>
+        <v>0.78</v>
       </c>
       <c r="I29">
-        <v>699139</v>
+        <v>34741634</v>
       </c>
       <c r="J29">
-        <v>1114.3</v>
+        <v>745.3</v>
       </c>
       <c r="K29">
-        <v>510.9</v>
+        <v>270.7</v>
       </c>
       <c r="L29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M29" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="N29" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2711,43 +2609,43 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C30">
-        <v>496.9999999999999</v>
+        <v>30694.7</v>
       </c>
       <c r="D30">
-        <v>200.5</v>
+        <v>6330</v>
       </c>
       <c r="E30">
-        <v>5909</v>
+        <v>354401</v>
       </c>
       <c r="F30">
-        <v>3063</v>
+        <v>98166.60000000001</v>
       </c>
       <c r="G30">
-        <v>11.89</v>
+        <v>11.55</v>
       </c>
       <c r="H30">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="I30">
-        <v>629076</v>
+        <v>32501940</v>
       </c>
       <c r="J30">
-        <v>939.3</v>
+        <v>1090.4</v>
       </c>
       <c r="K30">
-        <v>486.9</v>
+        <v>302</v>
       </c>
       <c r="L30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M30" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="N30" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2755,43 +2653,43 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C31">
-        <v>1109.6</v>
+        <v>57316.4</v>
       </c>
       <c r="D31">
-        <v>419.7</v>
+        <v>11827.6</v>
       </c>
       <c r="E31">
-        <v>13403.8</v>
+        <v>625673.9</v>
       </c>
       <c r="F31">
-        <v>6301.8</v>
+        <v>168432.2</v>
       </c>
       <c r="G31">
-        <v>12.08</v>
+        <v>10.92</v>
       </c>
       <c r="H31">
-        <v>0.8100000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I31">
-        <v>1328215</v>
+        <v>67243574</v>
       </c>
       <c r="J31">
-        <v>1009.2</v>
+        <v>930.5</v>
       </c>
       <c r="K31">
-        <v>474.5</v>
+        <v>250.5</v>
       </c>
       <c r="L31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M31" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="N31" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2799,43 +2697,43 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C32">
-        <v>1425.8</v>
+        <v>3017.2</v>
       </c>
       <c r="D32">
-        <v>496.1</v>
+        <v>2335.6</v>
       </c>
       <c r="E32">
-        <v>15746.3</v>
+        <v>37010</v>
       </c>
       <c r="F32">
-        <v>6513</v>
+        <v>32882.9</v>
       </c>
       <c r="G32">
-        <v>11.04</v>
+        <v>12.27</v>
       </c>
       <c r="H32">
-        <v>0.54</v>
+        <v>0.79</v>
       </c>
       <c r="I32">
-        <v>2795414</v>
+        <v>5496629</v>
       </c>
       <c r="J32">
-        <v>563.3</v>
+        <v>673.3</v>
       </c>
       <c r="K32">
-        <v>233</v>
+        <v>598.2</v>
       </c>
       <c r="L32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M32" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="N32" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2843,43 +2741,43 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C33">
-        <v>1649.8</v>
+        <v>2990.5</v>
       </c>
       <c r="D33">
-        <v>552.5</v>
+        <v>2185.8</v>
       </c>
       <c r="E33">
-        <v>19439</v>
+        <v>40560.9</v>
       </c>
       <c r="F33">
-        <v>7264.5</v>
+        <v>32903.3</v>
       </c>
       <c r="G33">
-        <v>11.78</v>
+        <v>13.56</v>
       </c>
       <c r="H33">
-        <v>0.35</v>
+        <v>0.63</v>
       </c>
       <c r="I33">
-        <v>2726489</v>
+        <v>5210329</v>
       </c>
       <c r="J33">
-        <v>713</v>
+        <v>778.5</v>
       </c>
       <c r="K33">
-        <v>266.4</v>
+        <v>631.5</v>
       </c>
       <c r="L33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M33" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="N33" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2887,43 +2785,43 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C34">
-        <v>3015.8</v>
+        <v>5964.2</v>
       </c>
       <c r="D34">
-        <v>940.8</v>
+        <v>3702.2</v>
       </c>
       <c r="E34">
-        <v>35213.3</v>
+        <v>75878.3</v>
       </c>
       <c r="F34">
-        <v>12843</v>
+        <v>50485.6</v>
       </c>
       <c r="G34">
-        <v>11.68</v>
+        <v>12.72</v>
       </c>
       <c r="H34">
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
       <c r="I34">
-        <v>5521903</v>
+        <v>10706958</v>
       </c>
       <c r="J34">
-        <v>637.7</v>
+        <v>708.7</v>
       </c>
       <c r="K34">
-        <v>232.6</v>
+        <v>471.5</v>
       </c>
       <c r="L34" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M34" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="N34" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2931,43 +2829,43 @@
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C35">
-        <v>34442.39999999999</v>
+        <v>7381.5</v>
       </c>
       <c r="D35">
-        <v>6860.9</v>
+        <v>2605.6</v>
       </c>
       <c r="E35">
-        <v>329513.1</v>
+        <v>89067.89999999999</v>
       </c>
       <c r="F35">
-        <v>71113.89999999999</v>
+        <v>40785.8</v>
       </c>
       <c r="G35">
-        <v>9.57</v>
+        <v>12.07</v>
       </c>
       <c r="H35">
-        <v>0.13</v>
+        <v>0.93</v>
       </c>
       <c r="I35">
-        <v>34741634</v>
+        <v>5086075</v>
       </c>
       <c r="J35">
-        <v>948.5</v>
+        <v>1751.2</v>
       </c>
       <c r="K35">
-        <v>204.7</v>
+        <v>801.9</v>
       </c>
       <c r="L35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M35" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="N35" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2975,43 +2873,43 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C36">
-        <v>35358.8</v>
+        <v>6744.2</v>
       </c>
       <c r="D36">
-        <v>6461.7</v>
+        <v>2477.5</v>
       </c>
       <c r="E36">
-        <v>346562.5</v>
+        <v>84885.5</v>
       </c>
       <c r="F36">
-        <v>78046.29999999999</v>
+        <v>42046.9</v>
       </c>
       <c r="G36">
-        <v>9.800000000000001</v>
+        <v>12.59</v>
       </c>
       <c r="H36">
-        <v>0.35</v>
+        <v>1.17</v>
       </c>
       <c r="I36">
-        <v>32501940</v>
+        <v>4679207</v>
       </c>
       <c r="J36">
-        <v>1066.3</v>
+        <v>1814.1</v>
       </c>
       <c r="K36">
-        <v>240.1</v>
+        <v>898.6</v>
       </c>
       <c r="L36" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M36" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="N36" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3019,43 +2917,43 @@
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C37">
-        <v>69780.2</v>
+        <v>14097.5</v>
       </c>
       <c r="D37">
-        <v>12954</v>
+        <v>4184</v>
       </c>
       <c r="E37">
-        <v>690058.8</v>
+        <v>176650.1</v>
       </c>
       <c r="F37">
-        <v>149482.9</v>
+        <v>69294.89999999999</v>
       </c>
       <c r="G37">
-        <v>9.890000000000001</v>
+        <v>12.53</v>
       </c>
       <c r="H37">
-        <v>0.26</v>
+        <v>0.92</v>
       </c>
       <c r="I37">
-        <v>67243574</v>
+        <v>9765282</v>
       </c>
       <c r="J37">
-        <v>1026.2</v>
+        <v>1809</v>
       </c>
       <c r="K37">
-        <v>222.3</v>
+        <v>709.6</v>
       </c>
       <c r="L37" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M37" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="N37" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3063,43 +2961,43 @@
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C38">
-        <v>177.4</v>
+        <v>38</v>
       </c>
       <c r="D38">
-        <v>230.3</v>
+        <v>97.7</v>
       </c>
       <c r="E38">
-        <v>1437.8</v>
+        <v>1325.3</v>
       </c>
       <c r="F38">
-        <v>2001.3</v>
+        <v>2637.5</v>
       </c>
       <c r="G38">
-        <v>8.1</v>
+        <v>34.88</v>
       </c>
       <c r="H38">
-        <v>0.34</v>
+        <v>5.68</v>
       </c>
       <c r="I38">
-        <v>1926961</v>
+        <v>177121</v>
       </c>
       <c r="J38">
-        <v>74.59999999999999</v>
+        <v>748.2</v>
       </c>
       <c r="K38">
-        <v>103.9</v>
+        <v>1489.1</v>
       </c>
       <c r="L38" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M38" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="N38" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3107,43 +3005,43 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C39">
-        <v>224.8</v>
+        <v>59.4</v>
       </c>
       <c r="D39">
-        <v>184.3</v>
+        <v>163.1</v>
       </c>
       <c r="E39">
-        <v>2312.1</v>
+        <v>1674.8</v>
       </c>
       <c r="F39">
-        <v>1980.7</v>
+        <v>3894.3</v>
       </c>
       <c r="G39">
-        <v>10.29</v>
+        <v>28.2</v>
       </c>
       <c r="H39">
-        <v>0.2</v>
+        <v>3.17</v>
       </c>
       <c r="I39">
-        <v>1790306</v>
+        <v>186896</v>
       </c>
       <c r="J39">
-        <v>129.1</v>
+        <v>896.1</v>
       </c>
       <c r="K39">
-        <v>110.6</v>
+        <v>2083.7</v>
       </c>
       <c r="L39" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M39" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="N39" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3151,43 +3049,43 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C40">
-        <v>327.6</v>
+        <v>63.3</v>
       </c>
       <c r="D40">
-        <v>405.7</v>
+        <v>149.8</v>
       </c>
       <c r="E40">
-        <v>3173.6</v>
+        <v>2389.4</v>
       </c>
       <c r="F40">
-        <v>3672.8</v>
+        <v>4878.6</v>
       </c>
       <c r="G40">
-        <v>9.69</v>
+        <v>37.75</v>
       </c>
       <c r="H40">
-        <v>0.35</v>
+        <v>3.64</v>
       </c>
       <c r="I40">
-        <v>3717267</v>
+        <v>364017</v>
       </c>
       <c r="J40">
-        <v>85.40000000000001</v>
+        <v>656.4</v>
       </c>
       <c r="K40">
-        <v>98.8</v>
+        <v>1340.2</v>
       </c>
       <c r="L40" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M40" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="N40" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3195,131 +3093,131 @@
         <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C41">
-        <v>87860.3</v>
+        <v>56343.7</v>
       </c>
       <c r="D41">
-        <v>211410.1</v>
+        <v>8837.4</v>
       </c>
       <c r="E41">
-        <v>972467.3</v>
+        <v>554530.7</v>
       </c>
       <c r="F41">
-        <v>2671268.2</v>
+        <v>105306.6</v>
       </c>
       <c r="G41">
-        <v>11.07</v>
+        <v>9.84</v>
       </c>
       <c r="H41">
-        <v>1.11</v>
+        <v>0.28</v>
       </c>
       <c r="I41">
-        <v>83057366</v>
+        <v>29127637</v>
       </c>
       <c r="J41">
-        <v>1170.8</v>
+        <v>1903.8</v>
       </c>
       <c r="K41">
-        <v>3216.2</v>
+        <v>361.5</v>
       </c>
       <c r="L41" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M41" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="N41" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C42">
-        <v>4835.6</v>
+        <v>59943.5</v>
       </c>
       <c r="D42">
-        <v>1811.9</v>
+        <v>6957.2</v>
       </c>
       <c r="E42">
-        <v>43409.8</v>
+        <v>691547.1</v>
       </c>
       <c r="F42">
-        <v>17581.5</v>
+        <v>98771.10000000001</v>
       </c>
       <c r="G42">
-        <v>8.98</v>
+        <v>11.54</v>
       </c>
       <c r="H42">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="I42">
-        <v>5496629</v>
+        <v>28325684</v>
       </c>
       <c r="J42">
-        <v>789.8</v>
+        <v>2441.4</v>
       </c>
       <c r="K42">
-        <v>319.9</v>
+        <v>348.7</v>
       </c>
       <c r="L42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M42" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="N42" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C43">
-        <v>4227.599999999999</v>
+        <v>116198.7</v>
       </c>
       <c r="D43">
-        <v>1176.5</v>
+        <v>14251.2</v>
       </c>
       <c r="E43">
-        <v>40349.7</v>
+        <v>1270699.3</v>
       </c>
       <c r="F43">
-        <v>11800.8</v>
+        <v>176594.3</v>
       </c>
       <c r="G43">
-        <v>9.539999999999999</v>
+        <v>10.94</v>
       </c>
       <c r="H43">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I43">
-        <v>5210329</v>
+        <v>59641488</v>
       </c>
       <c r="J43">
-        <v>774.4</v>
+        <v>2130.6</v>
       </c>
       <c r="K43">
-        <v>226.5</v>
+        <v>296.1</v>
       </c>
       <c r="L43" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M43" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="N43" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3327,131 +3225,131 @@
         <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C44">
-        <v>9037</v>
+        <v>842.1999999999999</v>
       </c>
       <c r="D44">
-        <v>3054.6</v>
+        <v>845.3</v>
       </c>
       <c r="E44">
-        <v>83231</v>
+        <v>9899.5</v>
       </c>
       <c r="F44">
-        <v>28906.5</v>
+        <v>12555</v>
       </c>
       <c r="G44">
-        <v>9.210000000000001</v>
+        <v>11.75</v>
       </c>
       <c r="H44">
-        <v>0.06</v>
+        <v>1.56</v>
       </c>
       <c r="I44">
-        <v>10706958</v>
+        <v>1026584</v>
       </c>
       <c r="J44">
-        <v>777.4</v>
+        <v>964.3</v>
       </c>
       <c r="K44">
-        <v>270</v>
+        <v>1223</v>
       </c>
       <c r="L44" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M44" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="N44" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C45">
-        <v>7562.200000000001</v>
+        <v>626.5</v>
       </c>
       <c r="D45">
-        <v>1130.4</v>
+        <v>829.3</v>
       </c>
       <c r="E45">
-        <v>81085</v>
+        <v>9293.800000000001</v>
       </c>
       <c r="F45">
-        <v>14649.2</v>
+        <v>14873</v>
       </c>
       <c r="G45">
-        <v>10.72</v>
+        <v>14.83</v>
       </c>
       <c r="H45">
-        <v>0.29</v>
+        <v>1.77</v>
       </c>
       <c r="I45">
-        <v>5086075</v>
+        <v>880883</v>
       </c>
       <c r="J45">
-        <v>1594.3</v>
+        <v>1055.1</v>
       </c>
       <c r="K45">
-        <v>288</v>
+        <v>1688.4</v>
       </c>
       <c r="L45" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M45" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="N45" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C46">
-        <v>6970.599999999999</v>
+        <v>1404.9</v>
       </c>
       <c r="D46">
-        <v>1122</v>
+        <v>1300.4</v>
       </c>
       <c r="E46">
-        <v>75732.50000000001</v>
+        <v>18781.6</v>
       </c>
       <c r="F46">
-        <v>16429.2</v>
+        <v>21942.1</v>
       </c>
       <c r="G46">
-        <v>10.86</v>
+        <v>13.37</v>
       </c>
       <c r="H46">
-        <v>0.53</v>
+        <v>1.68</v>
       </c>
       <c r="I46">
-        <v>4679207</v>
+        <v>1907467</v>
       </c>
       <c r="J46">
-        <v>1618.5</v>
+        <v>984.6</v>
       </c>
       <c r="K46">
-        <v>351.1</v>
+        <v>1150.3</v>
       </c>
       <c r="L46" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M46" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="N46" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3459,131 +3357,131 @@
         <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C47">
-        <v>14532.8</v>
+        <v>3200.6</v>
       </c>
       <c r="D47">
-        <v>2013.1</v>
+        <v>1246.3</v>
       </c>
       <c r="E47">
-        <v>161116.5</v>
+        <v>39132.6</v>
       </c>
       <c r="F47">
-        <v>28588.9</v>
+        <v>20998.4</v>
       </c>
       <c r="G47">
-        <v>11.09</v>
+        <v>12.23</v>
       </c>
       <c r="H47">
-        <v>0.38</v>
+        <v>1.29</v>
       </c>
       <c r="I47">
-        <v>9765282</v>
+        <v>1488280</v>
       </c>
       <c r="J47">
-        <v>1649.9</v>
+        <v>2629.4</v>
       </c>
       <c r="K47">
-        <v>292.8</v>
+        <v>1410.9</v>
       </c>
       <c r="L47" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M47" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="N47" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C48">
-        <v>39.2</v>
+        <v>3843.2</v>
       </c>
       <c r="D48">
-        <v>39</v>
+        <v>1340</v>
       </c>
       <c r="E48">
-        <v>1141.5</v>
+        <v>57739.8</v>
       </c>
       <c r="F48">
-        <v>795</v>
+        <v>24987.1</v>
       </c>
       <c r="G48">
-        <v>29.12</v>
+        <v>15.02</v>
       </c>
       <c r="H48">
-        <v>4.36</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I48">
-        <v>177121</v>
+        <v>1303845</v>
       </c>
       <c r="J48">
-        <v>644.5</v>
+        <v>4428.4</v>
       </c>
       <c r="K48">
-        <v>448.8</v>
+        <v>1916.4</v>
       </c>
       <c r="L48" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M48" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="N48" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C49">
-        <v>86.40000000000001</v>
+        <v>7013.1</v>
       </c>
       <c r="D49">
-        <v>44.3</v>
+        <v>1963.3</v>
       </c>
       <c r="E49">
-        <v>1915.1</v>
+        <v>101582.6</v>
       </c>
       <c r="F49">
-        <v>1067.3</v>
+        <v>36458.5</v>
       </c>
       <c r="G49">
-        <v>22.17</v>
+        <v>14.48</v>
       </c>
       <c r="H49">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="I49">
-        <v>186896</v>
+        <v>2792125</v>
       </c>
       <c r="J49">
-        <v>1024.7</v>
+        <v>3638.2</v>
       </c>
       <c r="K49">
-        <v>571.1</v>
+        <v>1305.8</v>
       </c>
       <c r="L49" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M49" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="N49" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3591,131 +3489,131 @@
         <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C50">
-        <v>106.6</v>
+        <v>157.9</v>
       </c>
       <c r="D50">
-        <v>79.7</v>
+        <v>252.6</v>
       </c>
       <c r="E50">
-        <v>2604.1</v>
+        <v>2432.8</v>
       </c>
       <c r="F50">
-        <v>1765</v>
+        <v>4747.1</v>
       </c>
       <c r="G50">
-        <v>24.43</v>
+        <v>15.41</v>
       </c>
       <c r="H50">
-        <v>0.98</v>
+        <v>2.08</v>
       </c>
       <c r="I50">
-        <v>364017</v>
+        <v>310943</v>
       </c>
       <c r="J50">
-        <v>715.4</v>
+        <v>782.4</v>
       </c>
       <c r="K50">
-        <v>484.9</v>
+        <v>1526.7</v>
       </c>
       <c r="L50" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M50" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="N50" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C51">
-        <v>52652.8</v>
+        <v>221.5</v>
       </c>
       <c r="D51">
-        <v>7566.4</v>
+        <v>307.2</v>
       </c>
       <c r="E51">
-        <v>474445.4</v>
+        <v>3711.1</v>
       </c>
       <c r="F51">
-        <v>82856.40000000001</v>
+        <v>5298</v>
       </c>
       <c r="G51">
-        <v>9.01</v>
+        <v>16.75</v>
       </c>
       <c r="H51">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
       <c r="I51">
-        <v>29127637</v>
+        <v>314851</v>
       </c>
       <c r="J51">
-        <v>1628.8</v>
+        <v>1178.7</v>
       </c>
       <c r="K51">
-        <v>284.5</v>
+        <v>1682.7</v>
       </c>
       <c r="L51" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M51" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="N51" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C52">
-        <v>58262</v>
+        <v>354.6</v>
       </c>
       <c r="D52">
-        <v>6031.200000000001</v>
+        <v>471.4</v>
       </c>
       <c r="E52">
-        <v>596777.1</v>
+        <v>5612.799999999999</v>
       </c>
       <c r="F52">
-        <v>73788.89999999999</v>
+        <v>8150.2</v>
       </c>
       <c r="G52">
-        <v>10.24</v>
+        <v>15.83</v>
       </c>
       <c r="H52">
-        <v>0.19</v>
+        <v>0.83</v>
       </c>
       <c r="I52">
-        <v>28325684</v>
+        <v>625794</v>
       </c>
       <c r="J52">
-        <v>2106.8</v>
+        <v>896.9</v>
       </c>
       <c r="K52">
-        <v>260.5</v>
+        <v>1302.4</v>
       </c>
       <c r="L52" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M52" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="N52" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3723,131 +3621,131 @@
         <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C53">
-        <v>110910.6</v>
+        <v>243.2</v>
       </c>
       <c r="D53">
-        <v>12988.8</v>
+        <v>283.7</v>
       </c>
       <c r="E53">
-        <v>1099126.6</v>
+        <v>2853</v>
       </c>
       <c r="F53">
-        <v>152524.4</v>
+        <v>4678.4</v>
       </c>
       <c r="G53">
-        <v>9.91</v>
+        <v>11.73</v>
       </c>
       <c r="H53">
-        <v>0.19</v>
+        <v>2.56</v>
       </c>
       <c r="I53">
-        <v>59641488</v>
+        <v>248495</v>
       </c>
       <c r="J53">
-        <v>1842.9</v>
+        <v>1148.1</v>
       </c>
       <c r="K53">
-        <v>255.7</v>
+        <v>1882.7</v>
       </c>
       <c r="L53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M53" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="N53" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C54">
-        <v>828.4000000000001</v>
+        <v>169.1</v>
       </c>
       <c r="D54">
-        <v>336.5</v>
+        <v>264.2</v>
       </c>
       <c r="E54">
-        <v>6047.8</v>
+        <v>2718.8</v>
       </c>
       <c r="F54">
-        <v>2693.7</v>
+        <v>4732.2</v>
       </c>
       <c r="G54">
-        <v>7.3</v>
+        <v>16.08</v>
       </c>
       <c r="H54">
-        <v>0.2</v>
+        <v>1.12</v>
       </c>
       <c r="I54">
-        <v>1026584</v>
+        <v>265547</v>
       </c>
       <c r="J54">
-        <v>589.1</v>
+        <v>1023.8</v>
       </c>
       <c r="K54">
-        <v>262.4</v>
+        <v>1782.1</v>
       </c>
       <c r="L54" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M54" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="N54" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C55">
-        <v>657.8</v>
+        <v>401.1</v>
       </c>
       <c r="D55">
-        <v>265.3</v>
+        <v>417.7</v>
       </c>
       <c r="E55">
-        <v>5579</v>
+        <v>5325.9</v>
       </c>
       <c r="F55">
-        <v>2974.7</v>
+        <v>7548</v>
       </c>
       <c r="G55">
-        <v>8.48</v>
+        <v>13.28</v>
       </c>
       <c r="H55">
-        <v>0.79</v>
+        <v>2.44</v>
       </c>
       <c r="I55">
-        <v>880883</v>
+        <v>514042</v>
       </c>
       <c r="J55">
-        <v>633.3</v>
+        <v>1036.1</v>
       </c>
       <c r="K55">
-        <v>337.7</v>
+        <v>1468.4</v>
       </c>
       <c r="L55" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M55" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="N55" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3855,131 +3753,131 @@
         <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C56">
-        <v>1450.6</v>
+        <v>423.7</v>
       </c>
       <c r="D56">
-        <v>636.8</v>
+        <v>466.6</v>
       </c>
       <c r="E56">
-        <v>11568.9</v>
+        <v>6102.2</v>
       </c>
       <c r="F56">
-        <v>6026.5</v>
+        <v>7630.7</v>
       </c>
       <c r="G56">
-        <v>7.98</v>
+        <v>14.4</v>
       </c>
       <c r="H56">
-        <v>0.45</v>
+        <v>1.03</v>
       </c>
       <c r="I56">
-        <v>1907467</v>
+        <v>314211</v>
       </c>
       <c r="J56">
-        <v>606.5</v>
+        <v>1942.1</v>
       </c>
       <c r="K56">
-        <v>315.9</v>
+        <v>2428.5</v>
       </c>
       <c r="L56" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M56" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="N56" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C57">
-        <v>2285.6</v>
+        <v>604.4</v>
       </c>
       <c r="D57">
-        <v>750.1999999999999</v>
+        <v>431.9</v>
       </c>
       <c r="E57">
-        <v>23398.3</v>
+        <v>6470.5</v>
       </c>
       <c r="F57">
-        <v>9003.300000000001</v>
+        <v>5131.5</v>
       </c>
       <c r="G57">
-        <v>10.24</v>
+        <v>10.71</v>
       </c>
       <c r="H57">
-        <v>0.43</v>
+        <v>0.49</v>
       </c>
       <c r="I57">
-        <v>1488280</v>
+        <v>307342</v>
       </c>
       <c r="J57">
-        <v>1572.2</v>
+        <v>2105.3</v>
       </c>
       <c r="K57">
-        <v>604.9</v>
+        <v>1669.6</v>
       </c>
       <c r="L57" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M57" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="N57" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58">
-        <v>2345.2</v>
+        <v>1011.5</v>
       </c>
       <c r="D58">
-        <v>825.3000000000001</v>
+        <v>637.9</v>
       </c>
       <c r="E58">
-        <v>27160.2</v>
+        <v>12099.1</v>
       </c>
       <c r="F58">
-        <v>12499.5</v>
+        <v>9524.4</v>
       </c>
       <c r="G58">
-        <v>11.58</v>
+        <v>11.96</v>
       </c>
       <c r="H58">
-        <v>0.93</v>
+        <v>1.15</v>
       </c>
       <c r="I58">
-        <v>1303845</v>
+        <v>621553</v>
       </c>
       <c r="J58">
-        <v>2083.1</v>
+        <v>1946.6</v>
       </c>
       <c r="K58">
-        <v>958.7</v>
+        <v>1532.4</v>
       </c>
       <c r="L58" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M58" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="N58" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3987,131 +3885,131 @@
         <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C59">
-        <v>4623.2</v>
+        <v>6726.2</v>
       </c>
       <c r="D59">
-        <v>1533.7</v>
+        <v>2574.6</v>
       </c>
       <c r="E59">
-        <v>53002.4</v>
+        <v>69528.5</v>
       </c>
       <c r="F59">
-        <v>22243.3</v>
+        <v>36606.7</v>
       </c>
       <c r="G59">
-        <v>11.46</v>
+        <v>10.34</v>
       </c>
       <c r="H59">
-        <v>0.76</v>
+        <v>1.07</v>
       </c>
       <c r="I59">
-        <v>2792125</v>
+        <v>8755516</v>
       </c>
       <c r="J59">
-        <v>1898.3</v>
+        <v>794.1</v>
       </c>
       <c r="K59">
-        <v>796.6</v>
+        <v>418.1</v>
       </c>
       <c r="L59" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M59" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="N59" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C60">
-        <v>263.6</v>
+        <v>9397.799999999999</v>
       </c>
       <c r="D60">
-        <v>94</v>
+        <v>2350.3</v>
       </c>
       <c r="E60">
-        <v>3270.8</v>
+        <v>107475.5</v>
       </c>
       <c r="F60">
-        <v>1529.1</v>
+        <v>39407.5</v>
       </c>
       <c r="G60">
-        <v>12.41</v>
+        <v>11.44</v>
       </c>
       <c r="H60">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="I60">
-        <v>310943</v>
+        <v>8642743</v>
       </c>
       <c r="J60">
-        <v>1051.9</v>
+        <v>1243.5</v>
       </c>
       <c r="K60">
-        <v>491.8</v>
+        <v>456</v>
       </c>
       <c r="L60" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M60" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="N60" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C61">
-        <v>312</v>
+        <v>16110.3</v>
       </c>
       <c r="D61">
-        <v>133.1</v>
+        <v>3998.9</v>
       </c>
       <c r="E61">
-        <v>4008.4</v>
+        <v>179502.1</v>
       </c>
       <c r="F61">
-        <v>2288.1</v>
+        <v>62788</v>
       </c>
       <c r="G61">
-        <v>12.85</v>
+        <v>11.14</v>
       </c>
       <c r="H61">
-        <v>1.3</v>
+        <v>0.91</v>
       </c>
       <c r="I61">
-        <v>314851</v>
+        <v>17398259</v>
       </c>
       <c r="J61">
-        <v>1273.1</v>
+        <v>1031.7</v>
       </c>
       <c r="K61">
-        <v>726.7</v>
+        <v>360.9</v>
       </c>
       <c r="L61" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M61" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="N61" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -4119,131 +4017,131 @@
         <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C62">
-        <v>561.2</v>
+        <v>132.4</v>
       </c>
       <c r="D62">
-        <v>196.6</v>
+        <v>406.3</v>
       </c>
       <c r="E62">
-        <v>6923.599999999999</v>
+        <v>2661.6</v>
       </c>
       <c r="F62">
-        <v>3546</v>
+        <v>10018.2</v>
       </c>
       <c r="G62">
-        <v>12.34</v>
+        <v>20.1</v>
       </c>
       <c r="H62">
-        <v>1.48</v>
+        <v>3.44</v>
       </c>
       <c r="I62">
-        <v>625794</v>
+        <v>2661342</v>
       </c>
       <c r="J62">
-        <v>1106.4</v>
+        <v>100</v>
       </c>
       <c r="K62">
-        <v>566.6</v>
+        <v>376.4</v>
       </c>
       <c r="L62" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M62" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="N62" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C63">
-        <v>261.8</v>
+        <v>281.6</v>
       </c>
       <c r="D63">
-        <v>84.59999999999999</v>
+        <v>661.7</v>
       </c>
       <c r="E63">
-        <v>2733</v>
+        <v>4991.6</v>
       </c>
       <c r="F63">
-        <v>1506.5</v>
+        <v>15143.2</v>
       </c>
       <c r="G63">
-        <v>10.44</v>
+        <v>17.73</v>
       </c>
       <c r="H63">
-        <v>1.8</v>
+        <v>3.62</v>
       </c>
       <c r="I63">
-        <v>248495</v>
+        <v>2706032</v>
       </c>
       <c r="J63">
-        <v>1099.8</v>
+        <v>184.5</v>
       </c>
       <c r="K63">
-        <v>606.2</v>
+        <v>559.6</v>
       </c>
       <c r="L63" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M63" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="N63" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C64">
-        <v>300.2</v>
+        <v>352.5</v>
       </c>
       <c r="D64">
-        <v>105.1</v>
+        <v>789.6999999999999</v>
       </c>
       <c r="E64">
-        <v>4038.7</v>
+        <v>6039.2</v>
       </c>
       <c r="F64">
-        <v>1827</v>
+        <v>19128.3</v>
       </c>
       <c r="G64">
-        <v>13.45</v>
+        <v>17.13</v>
       </c>
       <c r="H64">
-        <v>1.02</v>
+        <v>4.9</v>
       </c>
       <c r="I64">
-        <v>265547</v>
+        <v>5367374</v>
       </c>
       <c r="J64">
-        <v>1520.9</v>
+        <v>112.5</v>
       </c>
       <c r="K64">
-        <v>688</v>
+        <v>356.4</v>
       </c>
       <c r="L64" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M64" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="N64" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -4251,131 +4149,131 @@
         <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C65">
-        <v>556</v>
+        <v>30614.4</v>
       </c>
       <c r="D65">
-        <v>160.3</v>
+        <v>5249.6</v>
       </c>
       <c r="E65">
-        <v>6711.7</v>
+        <v>353973.6</v>
       </c>
       <c r="F65">
-        <v>2886</v>
+        <v>82547.7</v>
       </c>
       <c r="G65">
-        <v>12.07</v>
+        <v>11.56</v>
       </c>
       <c r="H65">
-        <v>1.33</v>
+        <v>0.61</v>
       </c>
       <c r="I65">
-        <v>514042</v>
+        <v>19570109</v>
       </c>
       <c r="J65">
-        <v>1305.7</v>
+        <v>1808.7</v>
       </c>
       <c r="K65">
-        <v>561.4</v>
+        <v>421.8</v>
       </c>
       <c r="L65" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M65" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="N65" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C66">
-        <v>337</v>
+        <v>40053.3</v>
       </c>
       <c r="D66">
-        <v>97.80000000000001</v>
+        <v>5223.4</v>
       </c>
       <c r="E66">
-        <v>3881.300000000001</v>
+        <v>501914.5</v>
       </c>
       <c r="F66">
-        <v>1477.4</v>
+        <v>89145.2</v>
       </c>
       <c r="G66">
-        <v>11.52</v>
+        <v>12.53</v>
       </c>
       <c r="H66">
-        <v>0.8</v>
+        <v>0.52</v>
       </c>
       <c r="I66">
-        <v>314211</v>
+        <v>18365622</v>
       </c>
       <c r="J66">
-        <v>1235.3</v>
+        <v>2732.9</v>
       </c>
       <c r="K66">
-        <v>470.2</v>
+        <v>485.4</v>
       </c>
       <c r="L66" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M66" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="N66" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C67">
-        <v>543</v>
+        <v>70662.10000000001</v>
       </c>
       <c r="D67">
-        <v>172.6</v>
+        <v>8938.6</v>
       </c>
       <c r="E67">
-        <v>5779.599999999999</v>
+        <v>894418.9</v>
       </c>
       <c r="F67">
-        <v>2428.9</v>
+        <v>142882.9</v>
       </c>
       <c r="G67">
-        <v>10.64</v>
+        <v>12.66</v>
       </c>
       <c r="H67">
-        <v>0.83</v>
+        <v>0.37</v>
       </c>
       <c r="I67">
-        <v>307342</v>
+        <v>37935731</v>
       </c>
       <c r="J67">
-        <v>1880.5</v>
+        <v>2357.7</v>
       </c>
       <c r="K67">
-        <v>790.3</v>
+        <v>376.6</v>
       </c>
       <c r="L67" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M67" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="N67" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -4383,131 +4281,131 @@
         <v>36</v>
       </c>
       <c r="B68" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C68">
-        <v>859</v>
+        <v>6626.1</v>
       </c>
       <c r="D68">
-        <v>186.3</v>
+        <v>2305</v>
       </c>
       <c r="E68">
-        <v>9686.4</v>
+        <v>67502.60000000001</v>
       </c>
       <c r="F68">
-        <v>3010.1</v>
+        <v>34103.1</v>
       </c>
       <c r="G68">
-        <v>11.28</v>
+        <v>10.19</v>
       </c>
       <c r="H68">
-        <v>0.87</v>
+        <v>1.19</v>
       </c>
       <c r="I68">
-        <v>621553</v>
+        <v>5428401</v>
       </c>
       <c r="J68">
-        <v>1558.4</v>
+        <v>1243.5</v>
       </c>
       <c r="K68">
-        <v>484.3</v>
+        <v>628.2</v>
       </c>
       <c r="L68" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M68" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="N68" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C69">
-        <v>8504.200000000001</v>
+        <v>5364.6</v>
       </c>
       <c r="D69">
-        <v>1334.6</v>
+        <v>2410.2</v>
       </c>
       <c r="E69">
-        <v>82459.29999999999</v>
+        <v>65332.1</v>
       </c>
       <c r="F69">
-        <v>19808.2</v>
+        <v>39883.3</v>
       </c>
       <c r="G69">
-        <v>9.699999999999999</v>
+        <v>12.18</v>
       </c>
       <c r="H69">
-        <v>0.6899999999999999</v>
+        <v>1.35</v>
       </c>
       <c r="I69">
-        <v>8755516</v>
+        <v>4855173</v>
       </c>
       <c r="J69">
-        <v>941.8</v>
+        <v>1345.6</v>
       </c>
       <c r="K69">
-        <v>226.2</v>
+        <v>821.5</v>
       </c>
       <c r="L69" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M69" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="N69" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C70">
-        <v>11933.6</v>
+        <v>11945.4</v>
       </c>
       <c r="D70">
-        <v>1808.9</v>
+        <v>3944.8</v>
       </c>
       <c r="E70">
-        <v>117987.8</v>
+        <v>133424</v>
       </c>
       <c r="F70">
-        <v>23008.5</v>
+        <v>61715.8</v>
       </c>
       <c r="G70">
-        <v>9.890000000000001</v>
+        <v>11.17</v>
       </c>
       <c r="H70">
-        <v>0.37</v>
+        <v>1.11</v>
       </c>
       <c r="I70">
-        <v>8642743</v>
+        <v>10283574</v>
       </c>
       <c r="J70">
-        <v>1365.2</v>
+        <v>1297.4</v>
       </c>
       <c r="K70">
-        <v>266.2</v>
+        <v>600.1</v>
       </c>
       <c r="L70" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M70" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="N70" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4515,131 +4413,131 @@
         <v>37</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C71">
-        <v>20342.6</v>
+        <v>17060.3</v>
       </c>
       <c r="D71">
-        <v>3027.9</v>
+        <v>3979.5</v>
       </c>
       <c r="E71">
-        <v>200808.7</v>
+        <v>219044.1</v>
       </c>
       <c r="F71">
-        <v>42925.2</v>
+        <v>63753.8</v>
       </c>
       <c r="G71">
-        <v>9.869999999999999</v>
+        <v>12.84</v>
       </c>
       <c r="H71">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="I71">
-        <v>17398259</v>
+        <v>9857376</v>
       </c>
       <c r="J71">
-        <v>1154.2</v>
+        <v>2222.1</v>
       </c>
       <c r="K71">
-        <v>246.7</v>
+        <v>646.8</v>
       </c>
       <c r="L71" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M71" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="N71" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C72">
-        <v>297.6</v>
+        <v>23473.8</v>
       </c>
       <c r="D72">
-        <v>236.9</v>
+        <v>4285.2</v>
       </c>
       <c r="E72">
-        <v>4613.7</v>
+        <v>278885.8</v>
       </c>
       <c r="F72">
-        <v>3964.2</v>
+        <v>72334</v>
       </c>
       <c r="G72">
-        <v>15.5</v>
+        <v>11.88</v>
       </c>
       <c r="H72">
-        <v>0.55</v>
+        <v>0.77</v>
       </c>
       <c r="I72">
-        <v>2661342</v>
+        <v>9455001</v>
       </c>
       <c r="J72">
-        <v>173.4</v>
+        <v>2949.6</v>
       </c>
       <c r="K72">
-        <v>149</v>
+        <v>765</v>
       </c>
       <c r="L72" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M72" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="N72" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C73">
-        <v>578</v>
+        <v>40484.6</v>
       </c>
       <c r="D73">
-        <v>313</v>
+        <v>6946.2</v>
       </c>
       <c r="E73">
-        <v>7037.4</v>
+        <v>510563.2</v>
       </c>
       <c r="F73">
-        <v>3625.4</v>
+        <v>110499.8</v>
       </c>
       <c r="G73">
-        <v>12.18</v>
+        <v>12.61</v>
       </c>
       <c r="H73">
-        <v>0.21</v>
+        <v>0.48</v>
       </c>
       <c r="I73">
-        <v>2706032</v>
+        <v>19312377</v>
       </c>
       <c r="J73">
-        <v>260.1</v>
+        <v>2643.7</v>
       </c>
       <c r="K73">
-        <v>134</v>
+        <v>572.2</v>
       </c>
       <c r="L73" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M73" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="N73" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4647,131 +4545,131 @@
         <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C74">
-        <v>767.9999999999999</v>
+        <v>4482.2</v>
       </c>
       <c r="D74">
-        <v>527.2</v>
+        <v>2320.8</v>
       </c>
       <c r="E74">
-        <v>10720</v>
+        <v>56036.4</v>
       </c>
       <c r="F74">
-        <v>7363.199999999999</v>
+        <v>31023.7</v>
       </c>
       <c r="G74">
-        <v>13.96</v>
+        <v>12.5</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I74">
-        <v>5367374</v>
+        <v>3548397</v>
       </c>
       <c r="J74">
-        <v>199.7</v>
+        <v>1579.2</v>
       </c>
       <c r="K74">
-        <v>137.2</v>
+        <v>874.3</v>
       </c>
       <c r="L74" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M74" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="N74" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C75">
-        <v>37303.8</v>
+        <v>7764.6</v>
       </c>
       <c r="D75">
-        <v>6607.4</v>
+        <v>2289.9</v>
       </c>
       <c r="E75">
-        <v>413043.5</v>
+        <v>102972.9</v>
       </c>
       <c r="F75">
-        <v>82102.2</v>
+        <v>36871.4</v>
       </c>
       <c r="G75">
-        <v>11.07</v>
+        <v>13.26</v>
       </c>
       <c r="H75">
-        <v>0.21</v>
+        <v>0.65</v>
       </c>
       <c r="I75">
-        <v>19570109</v>
+        <v>3371780</v>
       </c>
       <c r="J75">
-        <v>2110.6</v>
+        <v>3054</v>
       </c>
       <c r="K75">
-        <v>419.5</v>
+        <v>1093.5</v>
       </c>
       <c r="L75" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M75" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="N75" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C76">
-        <v>45326.60000000001</v>
+        <v>12201.4</v>
       </c>
       <c r="D76">
-        <v>6514.8</v>
+        <v>3804</v>
       </c>
       <c r="E76">
-        <v>538206.3999999999</v>
+        <v>161022.3</v>
       </c>
       <c r="F76">
-        <v>87852.60000000001</v>
+        <v>56746.9</v>
       </c>
       <c r="G76">
-        <v>11.87</v>
+        <v>13.2</v>
       </c>
       <c r="H76">
-        <v>0.21</v>
+        <v>0.41</v>
       </c>
       <c r="I76">
-        <v>18365622</v>
+        <v>6920177</v>
       </c>
       <c r="J76">
-        <v>2930.5</v>
+        <v>2326.9</v>
       </c>
       <c r="K76">
-        <v>478.4</v>
+        <v>820</v>
       </c>
       <c r="L76" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M76" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="N76" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4779,131 +4677,131 @@
         <v>39</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C77">
-        <v>82605.60000000001</v>
+        <v>3185.5</v>
       </c>
       <c r="D77">
-        <v>12854.7</v>
+        <v>1426.5</v>
       </c>
       <c r="E77">
-        <v>990455.0999999999</v>
+        <v>40137.4</v>
       </c>
       <c r="F77">
-        <v>170213.5</v>
+        <v>24688.8</v>
       </c>
       <c r="G77">
-        <v>11.99</v>
+        <v>12.6</v>
       </c>
       <c r="H77">
-        <v>0.17</v>
+        <v>1.46</v>
       </c>
       <c r="I77">
-        <v>37935731</v>
+        <v>2791028</v>
       </c>
       <c r="J77">
-        <v>2610.9</v>
+        <v>1438.1</v>
       </c>
       <c r="K77">
-        <v>448.7</v>
+        <v>884.6</v>
       </c>
       <c r="L77" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M77" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="N77" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C78">
-        <v>7731</v>
+        <v>3383.2</v>
       </c>
       <c r="D78">
-        <v>1417.1</v>
+        <v>1576.6</v>
       </c>
       <c r="E78">
-        <v>70277.7</v>
+        <v>40171.1</v>
       </c>
       <c r="F78">
-        <v>16786.9</v>
+        <v>29535.1</v>
       </c>
       <c r="G78">
-        <v>9.09</v>
+        <v>11.87</v>
       </c>
       <c r="H78">
-        <v>0.43</v>
+        <v>2.18</v>
       </c>
       <c r="I78">
-        <v>5428401</v>
+        <v>2664476</v>
       </c>
       <c r="J78">
-        <v>1294.6</v>
+        <v>1507.7</v>
       </c>
       <c r="K78">
-        <v>309.2</v>
+        <v>1108.5</v>
       </c>
       <c r="L78" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M78" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="N78" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B79" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C79">
-        <v>6631.6</v>
+        <v>6547.7</v>
       </c>
       <c r="D79">
-        <v>1443</v>
+        <v>2288.4</v>
       </c>
       <c r="E79">
-        <v>67669.5</v>
+        <v>81574.89999999999</v>
       </c>
       <c r="F79">
-        <v>17764.9</v>
+        <v>41972.5</v>
       </c>
       <c r="G79">
-        <v>10.2</v>
+        <v>12.46</v>
       </c>
       <c r="H79">
-        <v>0.38</v>
+        <v>1.52</v>
       </c>
       <c r="I79">
-        <v>4855173</v>
+        <v>5455504</v>
       </c>
       <c r="J79">
-        <v>1393.8</v>
+        <v>1495.3</v>
       </c>
       <c r="K79">
-        <v>365.9</v>
+        <v>769.4</v>
       </c>
       <c r="L79" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M79" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="N79" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4911,131 +4809,131 @@
         <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C80">
-        <v>14354.6</v>
+        <v>1974.3</v>
       </c>
       <c r="D80">
-        <v>2628.3</v>
+        <v>639.6</v>
       </c>
       <c r="E80">
-        <v>140361.9</v>
+        <v>19109.5</v>
       </c>
       <c r="F80">
-        <v>29396.3</v>
+        <v>10316</v>
       </c>
       <c r="G80">
-        <v>9.779999999999999</v>
+        <v>9.68</v>
       </c>
       <c r="H80">
-        <v>0.22</v>
+        <v>1.58</v>
       </c>
       <c r="I80">
-        <v>10283574</v>
+        <v>1043845</v>
       </c>
       <c r="J80">
-        <v>1364.9</v>
+        <v>1830.7</v>
       </c>
       <c r="K80">
-        <v>285.9</v>
+        <v>988.3</v>
       </c>
       <c r="L80" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M80" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N80" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C81">
-        <v>16448.8</v>
+        <v>1667.3</v>
       </c>
       <c r="D81">
-        <v>3285.7</v>
+        <v>842.5</v>
       </c>
       <c r="E81">
-        <v>188472.8</v>
+        <v>19967.1</v>
       </c>
       <c r="F81">
-        <v>37113.8</v>
+        <v>14903.1</v>
       </c>
       <c r="G81">
-        <v>11.46</v>
+        <v>11.98</v>
       </c>
       <c r="H81">
-        <v>0.03</v>
+        <v>1.91</v>
       </c>
       <c r="I81">
-        <v>9857376</v>
+        <v>1050156</v>
       </c>
       <c r="J81">
-        <v>1912</v>
+        <v>1901.3</v>
       </c>
       <c r="K81">
-        <v>376.5</v>
+        <v>1419.1</v>
       </c>
       <c r="L81" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M81" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="N81" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C82">
-        <v>23960.6</v>
+        <v>3619.5</v>
       </c>
       <c r="D82">
-        <v>3552.4</v>
+        <v>1086.2</v>
       </c>
       <c r="E82">
-        <v>285019.6</v>
+        <v>39318.3</v>
       </c>
       <c r="F82">
-        <v>45133.7</v>
+        <v>18765.1</v>
       </c>
       <c r="G82">
-        <v>11.9</v>
+        <v>10.86</v>
       </c>
       <c r="H82">
-        <v>0.1</v>
+        <v>1.48</v>
       </c>
       <c r="I82">
-        <v>9455001</v>
+        <v>2094001</v>
       </c>
       <c r="J82">
-        <v>3014.5</v>
+        <v>1877.7</v>
       </c>
       <c r="K82">
-        <v>477.4</v>
+        <v>896.1</v>
       </c>
       <c r="L82" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M82" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="N82" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -5043,131 +4941,131 @@
         <v>41</v>
       </c>
       <c r="B83" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C83">
-        <v>40409.4</v>
+        <v>38200.3</v>
       </c>
       <c r="D83">
-        <v>6607.7</v>
+        <v>5465</v>
       </c>
       <c r="E83">
-        <v>493530.8999999999</v>
+        <v>406011.9</v>
       </c>
       <c r="F83">
-        <v>80875.20000000001</v>
+        <v>81275.7</v>
       </c>
       <c r="G83">
-        <v>12.21</v>
+        <v>10.63</v>
       </c>
       <c r="H83">
-        <v>0.01</v>
+        <v>0.53</v>
       </c>
       <c r="I83">
-        <v>19312377</v>
+        <v>24103540</v>
       </c>
       <c r="J83">
-        <v>2555.5</v>
+        <v>1684.4</v>
       </c>
       <c r="K83">
-        <v>418.8</v>
+        <v>337.2</v>
       </c>
       <c r="L83" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M83" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="N83" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C84">
-        <v>3581.8</v>
+        <v>37913.6</v>
       </c>
       <c r="D84">
-        <v>1217.2</v>
+        <v>5188.6</v>
       </c>
       <c r="E84">
-        <v>39207.60000000001</v>
+        <v>446479</v>
       </c>
       <c r="F84">
-        <v>13675.7</v>
+        <v>85392.5</v>
       </c>
       <c r="G84">
-        <v>10.95</v>
+        <v>11.78</v>
       </c>
       <c r="H84">
-        <v>0.07000000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I84">
-        <v>3548397</v>
+        <v>23179515</v>
       </c>
       <c r="J84">
-        <v>1104.9</v>
+        <v>1926.2</v>
       </c>
       <c r="K84">
-        <v>385.4</v>
+        <v>368.4</v>
       </c>
       <c r="L84" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M84" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="N84" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C85">
-        <v>6797.999999999999</v>
+        <v>76092.7</v>
       </c>
       <c r="D85">
-        <v>1826.1</v>
+        <v>9096.4</v>
       </c>
       <c r="E85">
-        <v>82262.79999999999</v>
+        <v>869510.8</v>
       </c>
       <c r="F85">
-        <v>24267</v>
+        <v>133940.4</v>
       </c>
       <c r="G85">
-        <v>12.1</v>
+        <v>11.43</v>
       </c>
       <c r="H85">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="I85">
-        <v>3371780</v>
+        <v>47283055</v>
       </c>
       <c r="J85">
-        <v>2439.7</v>
+        <v>1838.9</v>
       </c>
       <c r="K85">
-        <v>719.7</v>
+        <v>283.3</v>
       </c>
       <c r="L85" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M85" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="N85" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -5175,131 +5073,131 @@
         <v>42</v>
       </c>
       <c r="B86" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C86">
-        <v>10149.6</v>
+        <v>4124.2</v>
       </c>
       <c r="D86">
-        <v>2669.1</v>
+        <v>1581.8</v>
       </c>
       <c r="E86">
-        <v>121240.2</v>
+        <v>36836</v>
       </c>
       <c r="F86">
-        <v>36021</v>
+        <v>23025.9</v>
       </c>
       <c r="G86">
-        <v>11.95</v>
+        <v>8.93</v>
       </c>
       <c r="H86">
-        <v>0.32</v>
+        <v>1.56</v>
       </c>
       <c r="I86">
-        <v>6920177</v>
+        <v>5130956</v>
       </c>
       <c r="J86">
-        <v>1752</v>
+        <v>717.9</v>
       </c>
       <c r="K86">
-        <v>520.5</v>
+        <v>448.8</v>
       </c>
       <c r="L86" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M86" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="N86" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C87">
-        <v>3049.8</v>
+        <v>5439.5</v>
       </c>
       <c r="D87">
-        <v>660.0999999999999</v>
+        <v>1817</v>
       </c>
       <c r="E87">
-        <v>35757.1</v>
+        <v>64221.3</v>
       </c>
       <c r="F87">
-        <v>10186.1</v>
+        <v>30695</v>
       </c>
       <c r="G87">
-        <v>11.72</v>
+        <v>11.81</v>
       </c>
       <c r="H87">
-        <v>0.66</v>
+        <v>1.27</v>
       </c>
       <c r="I87">
-        <v>2791028</v>
+        <v>5193983</v>
       </c>
       <c r="J87">
-        <v>1281.1</v>
+        <v>1236.5</v>
       </c>
       <c r="K87">
-        <v>365</v>
+        <v>591</v>
       </c>
       <c r="L87" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M87" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="N87" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C88">
-        <v>3654.8</v>
+        <v>9476.5</v>
       </c>
       <c r="D88">
-        <v>512.3</v>
+        <v>2771.3</v>
       </c>
       <c r="E88">
-        <v>39192.7</v>
+        <v>99901.7</v>
       </c>
       <c r="F88">
-        <v>7293.4</v>
+        <v>44464.8</v>
       </c>
       <c r="G88">
-        <v>10.72</v>
+        <v>10.54</v>
       </c>
       <c r="H88">
-        <v>0.44</v>
+        <v>1.25</v>
       </c>
       <c r="I88">
-        <v>2664476</v>
+        <v>10324939</v>
       </c>
       <c r="J88">
-        <v>1470.9</v>
+        <v>967.6</v>
       </c>
       <c r="K88">
-        <v>273.7</v>
+        <v>430.7</v>
       </c>
       <c r="L88" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M88" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="N88" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -5307,571 +5205,131 @@
         <v>43</v>
       </c>
       <c r="B89" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C89">
-        <v>6661.199999999999</v>
+        <v>4090.8</v>
       </c>
       <c r="D89">
-        <v>953.9000000000001</v>
+        <v>1460.3</v>
       </c>
       <c r="E89">
-        <v>75911.40000000001</v>
+        <v>35252.6</v>
       </c>
       <c r="F89">
-        <v>11916.5</v>
+        <v>25280.8</v>
       </c>
       <c r="G89">
-        <v>11.4</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="H89">
-        <v>0.13</v>
+        <v>2.28</v>
       </c>
       <c r="I89">
-        <v>5455504</v>
+        <v>4186812</v>
       </c>
       <c r="J89">
-        <v>1391.5</v>
+        <v>842</v>
       </c>
       <c r="K89">
-        <v>218.4</v>
+        <v>603.8</v>
       </c>
       <c r="L89" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M89" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="N89" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C90">
-        <v>2183.8</v>
+        <v>5029.2</v>
       </c>
       <c r="D90">
-        <v>355.8</v>
+        <v>1601.4</v>
       </c>
       <c r="E90">
-        <v>19031.5</v>
+        <v>53852.5</v>
       </c>
       <c r="F90">
-        <v>4339</v>
+        <v>31940.6</v>
       </c>
       <c r="G90">
-        <v>8.710000000000001</v>
+        <v>10.71</v>
       </c>
       <c r="H90">
-        <v>0.49</v>
+        <v>2.23</v>
       </c>
       <c r="I90">
-        <v>1043845</v>
+        <v>4190064</v>
       </c>
       <c r="J90">
-        <v>1823.2</v>
+        <v>1285.2</v>
       </c>
       <c r="K90">
-        <v>415.7</v>
+        <v>762.3</v>
       </c>
       <c r="L90" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M90" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="N90" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B91" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C91">
-        <v>1950.8</v>
+        <v>9071.6</v>
       </c>
       <c r="D91">
-        <v>350.1</v>
+        <v>2437.5</v>
       </c>
       <c r="E91">
-        <v>19361.6</v>
+        <v>88940.2</v>
       </c>
       <c r="F91">
-        <v>5137.300000000001</v>
+        <v>45938.2</v>
       </c>
       <c r="G91">
-        <v>9.92</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H91">
-        <v>0.73</v>
+        <v>1.92</v>
       </c>
       <c r="I91">
-        <v>1050156</v>
+        <v>8376876</v>
       </c>
       <c r="J91">
-        <v>1843.7</v>
+        <v>1061.7</v>
       </c>
       <c r="K91">
-        <v>489.2</v>
+        <v>548.4</v>
       </c>
       <c r="L91" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M91" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="N91" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
-      <c r="A92" t="s">
-        <v>44</v>
-      </c>
-      <c r="B92" t="s">
-        <v>50</v>
-      </c>
-      <c r="C92">
-        <v>4122.4</v>
-      </c>
-      <c r="D92">
-        <v>589</v>
-      </c>
-      <c r="E92">
-        <v>38774.8</v>
-      </c>
-      <c r="F92">
-        <v>7443.9</v>
-      </c>
-      <c r="G92">
-        <v>9.41</v>
-      </c>
-      <c r="H92">
-        <v>0.4</v>
-      </c>
-      <c r="I92">
-        <v>2094001</v>
-      </c>
-      <c r="J92">
-        <v>1851.7</v>
-      </c>
-      <c r="K92">
-        <v>355.5</v>
-      </c>
-      <c r="L92" t="s">
-        <v>141</v>
-      </c>
-      <c r="M92" t="s">
-        <v>241</v>
-      </c>
-      <c r="N92" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="A93" t="s">
-        <v>45</v>
-      </c>
-      <c r="B93" t="s">
-        <v>48</v>
-      </c>
-      <c r="C93">
-        <v>39333</v>
-      </c>
-      <c r="D93">
-        <v>4956.8</v>
-      </c>
-      <c r="E93">
-        <v>404830.8</v>
-      </c>
-      <c r="F93">
-        <v>59531.10000000001</v>
-      </c>
-      <c r="G93">
-        <v>10.29</v>
-      </c>
-      <c r="H93">
-        <v>0.19</v>
-      </c>
-      <c r="I93">
-        <v>24103540</v>
-      </c>
-      <c r="J93">
-        <v>1679.5</v>
-      </c>
-      <c r="K93">
-        <v>247</v>
-      </c>
-      <c r="L93" t="s">
-        <v>142</v>
-      </c>
-      <c r="M93" t="s">
-        <v>242</v>
-      </c>
-      <c r="N93" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="A94" t="s">
-        <v>45</v>
-      </c>
-      <c r="B94" t="s">
-        <v>49</v>
-      </c>
-      <c r="C94">
-        <v>39228.2</v>
-      </c>
-      <c r="D94">
-        <v>5166.700000000001</v>
-      </c>
-      <c r="E94">
-        <v>427826</v>
-      </c>
-      <c r="F94">
-        <v>61911.3</v>
-      </c>
-      <c r="G94">
-        <v>10.91</v>
-      </c>
-      <c r="H94">
-        <v>0.12</v>
-      </c>
-      <c r="I94">
-        <v>23179515</v>
-      </c>
-      <c r="J94">
-        <v>1845.7</v>
-      </c>
-      <c r="K94">
-        <v>267.1</v>
-      </c>
-      <c r="L94" t="s">
-        <v>143</v>
-      </c>
-      <c r="M94" t="s">
-        <v>243</v>
-      </c>
-      <c r="N94" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="A95" t="s">
-        <v>45</v>
-      </c>
-      <c r="B95" t="s">
-        <v>50</v>
-      </c>
-      <c r="C95">
-        <v>78535.2</v>
-      </c>
-      <c r="D95">
-        <v>9621.200000000001</v>
-      </c>
-      <c r="E95">
-        <v>848445.3999999999</v>
-      </c>
-      <c r="F95">
-        <v>118377.8</v>
-      </c>
-      <c r="G95">
-        <v>10.8</v>
-      </c>
-      <c r="H95">
-        <v>0.17</v>
-      </c>
-      <c r="I95">
-        <v>47283055</v>
-      </c>
-      <c r="J95">
-        <v>1794.4</v>
-      </c>
-      <c r="K95">
-        <v>250.4</v>
-      </c>
-      <c r="L95" t="s">
-        <v>144</v>
-      </c>
-      <c r="M95" t="s">
-        <v>244</v>
-      </c>
-      <c r="N95" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="A96" t="s">
-        <v>46</v>
-      </c>
-      <c r="B96" t="s">
-        <v>48</v>
-      </c>
-      <c r="C96">
-        <v>3434.6</v>
-      </c>
-      <c r="D96">
-        <v>717.6999999999999</v>
-      </c>
-      <c r="E96">
-        <v>32142.9</v>
-      </c>
-      <c r="F96">
-        <v>6941.9</v>
-      </c>
-      <c r="G96">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="H96">
-        <v>0.05</v>
-      </c>
-      <c r="I96">
-        <v>5130956</v>
-      </c>
-      <c r="J96">
-        <v>626.5</v>
-      </c>
-      <c r="K96">
-        <v>135.3</v>
-      </c>
-      <c r="L96" t="s">
-        <v>145</v>
-      </c>
-      <c r="M96" t="s">
-        <v>245</v>
-      </c>
-      <c r="N96" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
-      <c r="A97" t="s">
-        <v>46</v>
-      </c>
-      <c r="B97" t="s">
-        <v>49</v>
-      </c>
-      <c r="C97">
-        <v>4957.2</v>
-      </c>
-      <c r="D97">
-        <v>662.9</v>
-      </c>
-      <c r="E97">
-        <v>45934.40000000001</v>
-      </c>
-      <c r="F97">
-        <v>10124.7</v>
-      </c>
-      <c r="G97">
-        <v>9.27</v>
-      </c>
-      <c r="H97">
-        <v>0.7</v>
-      </c>
-      <c r="I97">
-        <v>5193983</v>
-      </c>
-      <c r="J97">
-        <v>884.4</v>
-      </c>
-      <c r="K97">
-        <v>194.9</v>
-      </c>
-      <c r="L97" t="s">
-        <v>146</v>
-      </c>
-      <c r="M97" t="s">
-        <v>246</v>
-      </c>
-      <c r="N97" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
-      <c r="A98" t="s">
-        <v>46</v>
-      </c>
-      <c r="B98" t="s">
-        <v>50</v>
-      </c>
-      <c r="C98">
-        <v>8278.200000000001</v>
-      </c>
-      <c r="D98">
-        <v>1141.2</v>
-      </c>
-      <c r="E98">
-        <v>75130.5</v>
-      </c>
-      <c r="F98">
-        <v>13536.9</v>
-      </c>
-      <c r="G98">
-        <v>9.08</v>
-      </c>
-      <c r="H98">
-        <v>0.33</v>
-      </c>
-      <c r="I98">
-        <v>10324939</v>
-      </c>
-      <c r="J98">
-        <v>727.7</v>
-      </c>
-      <c r="K98">
-        <v>131.1</v>
-      </c>
-      <c r="L98" t="s">
-        <v>147</v>
-      </c>
-      <c r="M98" t="s">
-        <v>247</v>
-      </c>
-      <c r="N98" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
-      <c r="A99" t="s">
-        <v>47</v>
-      </c>
-      <c r="B99" t="s">
-        <v>48</v>
-      </c>
-      <c r="C99">
-        <v>4818.2</v>
-      </c>
-      <c r="D99">
-        <v>541.5</v>
-      </c>
-      <c r="E99">
-        <v>40763.5</v>
-      </c>
-      <c r="F99">
-        <v>6281.200000000001</v>
-      </c>
-      <c r="G99">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="H99">
-        <v>0.32</v>
-      </c>
-      <c r="I99">
-        <v>4186812</v>
-      </c>
-      <c r="J99">
-        <v>973.6</v>
-      </c>
-      <c r="K99">
-        <v>150</v>
-      </c>
-      <c r="L99" t="s">
-        <v>148</v>
-      </c>
-      <c r="M99" t="s">
-        <v>248</v>
-      </c>
-      <c r="N99" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
-      <c r="A100" t="s">
-        <v>47</v>
-      </c>
-      <c r="B100" t="s">
-        <v>49</v>
-      </c>
-      <c r="C100">
-        <v>5657</v>
-      </c>
-      <c r="D100">
-        <v>723.2</v>
-      </c>
-      <c r="E100">
-        <v>51560.3</v>
-      </c>
-      <c r="F100">
-        <v>11939.8</v>
-      </c>
-      <c r="G100">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="H100">
-        <v>0.84</v>
-      </c>
-      <c r="I100">
-        <v>4190064</v>
-      </c>
-      <c r="J100">
-        <v>1230.5</v>
-      </c>
-      <c r="K100">
-        <v>285</v>
-      </c>
-      <c r="L100" t="s">
-        <v>149</v>
-      </c>
-      <c r="M100" t="s">
-        <v>249</v>
-      </c>
-      <c r="N100" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
-      <c r="A101" t="s">
-        <v>47</v>
-      </c>
-      <c r="B101" t="s">
-        <v>50</v>
-      </c>
-      <c r="C101">
-        <v>10370.6</v>
-      </c>
-      <c r="D101">
-        <v>1174.7</v>
-      </c>
-      <c r="E101">
-        <v>90640.5</v>
-      </c>
-      <c r="F101">
-        <v>17183.8</v>
-      </c>
-      <c r="G101">
-        <v>8.74</v>
-      </c>
-      <c r="H101">
-        <v>0.6</v>
-      </c>
-      <c r="I101">
-        <v>8376876</v>
-      </c>
-      <c r="J101">
-        <v>1082</v>
-      </c>
-      <c r="K101">
-        <v>205.1</v>
-      </c>
-      <c r="L101" t="s">
-        <v>150</v>
-      </c>
-      <c r="M101" t="s">
-        <v>250</v>
-      </c>
-      <c r="N101" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
